--- a/research/stock_returns.xlsx
+++ b/research/stock_returns.xlsx
@@ -497,25 +497,25 @@
         <v>21505.7</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E2" t="n">
         <v>19264.55</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G2" t="n">
-        <v>4196.9</v>
+        <v>4149.95</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I2" t="n">
         <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>35.6</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="3">
@@ -531,25 +531,25 @@
         <v>2679.95</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E3" t="n">
         <v>1399.65</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G3" t="n">
-        <v>703.3</v>
+        <v>725.7</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I3" t="n">
         <v>13.9</v>
       </c>
       <c r="J3" t="n">
-        <v>14.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -565,25 +565,25 @@
         <v>2439.75</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E4" t="n">
         <v>1731.35</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G4" t="n">
-        <v>1429.5</v>
+        <v>1434.8</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I4" t="n">
         <v>7.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="5">
@@ -599,25 +599,25 @@
         <v>2584.85</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E5" t="n">
         <v>1536.65</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G5" t="n">
-        <v>330.1</v>
+        <v>331.9</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I5" t="n">
         <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="6">
@@ -633,25 +633,25 @@
         <v>1106.3</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E6" t="n">
         <v>1980.6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G6" t="n">
-        <v>168.15</v>
+        <v>169.65</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I6" t="n">
         <v>-11</v>
       </c>
       <c r="J6" t="n">
-        <v>63.8</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="7">
@@ -667,13 +667,13 @@
         <v>657</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E7" t="n">
         <v>662.85</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I7" t="n">
         <v>-0.2</v>
@@ -705,7 +705,7 @@
         <v>1808.2</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -747,25 +747,25 @@
         <v>21436.9</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E9" t="n">
         <v>5497.75</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G9" t="n">
-        <v>1485</v>
+        <v>1494.65</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I9" t="n">
         <v>31.3</v>
       </c>
       <c r="J9" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="10">
@@ -781,25 +781,25 @@
         <v>3841.2</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E10" t="n">
         <v>166.05</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G10" t="n">
-        <v>285.35</v>
+        <v>276.7</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I10" t="n">
         <v>87.40000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>-10.3</v>
+        <v>-9.699999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -815,7 +815,7 @@
         <v>1888.7</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -857,25 +857,25 @@
         <v>822.3</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E12" t="n">
         <v>399.65</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G12" t="n">
-        <v>138.45</v>
+        <v>137.5</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I12" t="n">
         <v>15.5</v>
       </c>
       <c r="J12" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="13">
@@ -891,7 +891,7 @@
         <v>3550.6</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -933,13 +933,13 @@
         <v>2549.5</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E14" t="n">
         <v>219.7</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I14" t="n">
         <v>63.3</v>
@@ -971,7 +971,7 @@
         <v>603.95</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1013,13 +1013,13 @@
         <v>155.4</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E16" t="n">
         <v>186.4</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I16" t="n">
         <v>-3.6</v>
@@ -1051,13 +1051,13 @@
         <v>286.8</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E17" t="n">
         <v>170</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I17" t="n">
         <v>11</v>
@@ -1089,7 +1089,7 @@
         <v>1072.05</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1131,19 +1131,19 @@
         <v>1207.75</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E19" t="n">
         <v>1493.75</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G19" t="n">
-        <v>389.15</v>
+        <v>388.65</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I19" t="n">
         <v>-4.2</v>
@@ -1165,25 +1165,25 @@
         <v>568.9</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E20" t="n">
         <v>531.2</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G20" t="n">
-        <v>72</v>
+        <v>71.34999999999999</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I20" t="n">
         <v>1.4</v>
       </c>
       <c r="J20" t="n">
-        <v>49.1</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="21">
@@ -1199,13 +1199,13 @@
         <v>3001.15</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E21" t="n">
         <v>2225.95</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I21" t="n">
         <v>6.2</v>
@@ -1237,25 +1237,25 @@
         <v>2661.7</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E22" t="n">
         <v>658.8</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G22" t="n">
-        <v>156.9</v>
+        <v>155</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I22" t="n">
         <v>32.2</v>
       </c>
       <c r="J22" t="n">
-        <v>33.2</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="23">
@@ -1271,25 +1271,25 @@
         <v>526.5</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E23" t="n">
         <v>268.05</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G23" t="n">
-        <v>204.25</v>
+        <v>206.1</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I23" t="n">
         <v>14.5</v>
       </c>
       <c r="J23" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="24">
@@ -1305,25 +1305,25 @@
         <v>4454.35</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E24" t="n">
         <v>1202.55</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G24" t="n">
-        <v>783.25</v>
+        <v>809.2</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I24" t="n">
         <v>29.9</v>
       </c>
       <c r="J24" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1339,25 +1339,25 @@
         <v>148.65</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E25" t="n">
         <v>118.65</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G25" t="n">
-        <v>27.3</v>
+        <v>26.65</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I25" t="n">
         <v>4.6</v>
       </c>
       <c r="J25" t="n">
-        <v>34.2</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="26">
@@ -1373,25 +1373,25 @@
         <v>3047.25</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E26" t="n">
         <v>1143.65</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G26" t="n">
-        <v>4371.95</v>
+        <v>4402</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I26" t="n">
         <v>21.7</v>
       </c>
       <c r="J26" t="n">
-        <v>-23.5</v>
+        <v>-23.6</v>
       </c>
     </row>
     <row r="27">
@@ -1407,25 +1407,25 @@
         <v>1963.1</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E27" t="n">
         <v>835.55</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G27" t="n">
-        <v>384.25</v>
+        <v>381.7</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I27" t="n">
         <v>18.6</v>
       </c>
       <c r="J27" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -1441,25 +1441,25 @@
         <v>8207.6</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E28" t="n">
         <v>2752.1</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G28" t="n">
-        <v>422.3</v>
+        <v>414.6</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I28" t="n">
         <v>24.4</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -1475,19 +1475,19 @@
         <v>434.8</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E29" t="n">
         <v>683.95</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G29" t="n">
-        <v>201.7</v>
+        <v>201.65</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I29" t="n">
         <v>-8.699999999999999</v>
@@ -1509,13 +1509,13 @@
         <v>4072.75</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E30" t="n">
         <v>1170.5</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I30" t="n">
         <v>28.3</v>
@@ -1547,25 +1547,25 @@
         <v>941.6</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E31" t="n">
         <v>565.5</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G31" t="n">
-        <v>1386.85</v>
+        <v>1378.95</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I31" t="n">
         <v>10.7</v>
       </c>
       <c r="J31" t="n">
-        <v>-16.4</v>
+        <v>-16.3</v>
       </c>
     </row>
     <row r="32">
@@ -1581,25 +1581,25 @@
         <v>3573.95</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E32" t="n">
         <v>3289.25</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G32" t="n">
-        <v>2202.25</v>
+        <v>2205.6</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I32" t="n">
         <v>1.7</v>
       </c>
       <c r="J32" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="33">
@@ -1615,25 +1615,25 @@
         <v>6553.75</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E33" t="n">
         <v>1725.65</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G33" t="n">
-        <v>1350.15</v>
+        <v>1387.15</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I33" t="n">
         <v>30.6</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="34">
@@ -1649,25 +1649,25 @@
         <v>1552.5</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E34" t="n">
         <v>5171.85</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G34" t="n">
-        <v>910.3</v>
+        <v>930.6</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I34" t="n">
         <v>-21.4</v>
       </c>
       <c r="J34" t="n">
-        <v>41.5</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="35">
@@ -1683,25 +1683,25 @@
         <v>5607.15</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E35" t="n">
         <v>2864.45</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G35" t="n">
-        <v>1001.5</v>
+        <v>1032.8</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I35" t="n">
         <v>14.4</v>
       </c>
       <c r="J35" t="n">
-        <v>23.4</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="36">
@@ -1717,25 +1717,25 @@
         <v>2128</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E36" t="n">
         <v>1195.45</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G36" t="n">
-        <v>302.95</v>
+        <v>309.45</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I36" t="n">
         <v>12.2</v>
       </c>
       <c r="J36" t="n">
-        <v>31.6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37">
@@ -1751,7 +1751,7 @@
         <v>240.15</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -1793,25 +1793,25 @@
         <v>186.25</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E38" t="n">
         <v>161.5</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G38" t="n">
-        <v>887.55</v>
+        <v>884.3</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I38" t="n">
         <v>2.9</v>
       </c>
       <c r="J38" t="n">
-        <v>-28.9</v>
+        <v>-28.8</v>
       </c>
     </row>
     <row r="39">
@@ -1827,25 +1827,25 @@
         <v>91.5</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E39" t="n">
         <v>169.9</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G39" t="n">
-        <v>360.3</v>
+        <v>364.6</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I39" t="n">
         <v>-11.6</v>
       </c>
       <c r="J39" t="n">
-        <v>-14</v>
+        <v>-14.2</v>
       </c>
     </row>
     <row r="40">
@@ -1861,25 +1861,25 @@
         <v>1653.55</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E40" t="n">
         <v>755.3</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G40" t="n">
-        <v>898.6</v>
+        <v>878.3</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I40" t="n">
         <v>17</v>
       </c>
       <c r="J40" t="n">
-        <v>-3.4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="41">
@@ -1895,25 +1895,25 @@
         <v>4896.05</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E41" t="n">
         <v>4455.5</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G41" t="n">
-        <v>1283.4</v>
+        <v>1250.9</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I41" t="n">
         <v>1.9</v>
       </c>
       <c r="J41" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="42">
@@ -1929,25 +1929,25 @@
         <v>577.3</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E42" t="n">
         <v>268.9</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G42" t="n">
-        <v>156.7</v>
+        <v>155.55</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I42" t="n">
         <v>16.5</v>
       </c>
       <c r="J42" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="43">
@@ -1963,25 +1963,25 @@
         <v>100.25</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E43" t="n">
         <v>181.45</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G43" t="n">
-        <v>1319.8</v>
+        <v>1317.45</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I43" t="n">
         <v>-11.2</v>
       </c>
       <c r="J43" t="n">
-        <v>-32.8</v>
+        <v>-32.7</v>
       </c>
     </row>
     <row r="44">
@@ -1997,25 +1997,25 @@
         <v>884.05</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E44" t="n">
         <v>723</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G44" t="n">
-        <v>263.8</v>
+        <v>262.55</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I44" t="n">
         <v>4.1</v>
       </c>
       <c r="J44" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="45">
@@ -2031,25 +2031,25 @@
         <v>80.15000000000001</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E45" t="n">
         <v>95.15000000000001</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G45" t="n">
-        <v>238.05</v>
+        <v>242.8</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I45" t="n">
         <v>-3.4</v>
       </c>
       <c r="J45" t="n">
-        <v>-16.8</v>
+        <v>-17.1</v>
       </c>
     </row>
     <row r="46">
@@ -2065,25 +2065,25 @@
         <v>333.85</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E46" t="n">
         <v>508.6</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G46" t="n">
-        <v>366.45</v>
+        <v>374</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I46" t="n">
         <v>-8.1</v>
       </c>
       <c r="J46" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="47">
@@ -2099,25 +2099,25 @@
         <v>813.5</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E47" t="n">
         <v>527.9</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G47" t="n">
-        <v>321.05</v>
+        <v>327</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I47" t="n">
         <v>9</v>
       </c>
       <c r="J47" t="n">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="48">
@@ -2133,25 +2133,25 @@
         <v>263.4</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E48" t="n">
         <v>538</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G48" t="n">
-        <v>291.25</v>
+        <v>291.55</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I48" t="n">
         <v>-13.3</v>
       </c>
       <c r="J48" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
@@ -2167,25 +2167,25 @@
         <v>7822.75</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E49" t="n">
         <v>4600.3</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G49" t="n">
-        <v>2038.7</v>
+        <v>2061.8</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I49" t="n">
         <v>11.2</v>
       </c>
       <c r="J49" t="n">
-        <v>17.7</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="50">
@@ -2201,25 +2201,25 @@
         <v>17169.65</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E50" t="n">
         <v>19791.9</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G50" t="n">
-        <v>9475.549999999999</v>
+        <v>9346.25</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I50" t="n">
         <v>-2.8</v>
       </c>
       <c r="J50" t="n">
-        <v>15.9</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="51">
@@ -2235,25 +2235,25 @@
         <v>4292.15</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E51" t="n">
         <v>4738.25</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G51" t="n">
-        <v>504.3</v>
+        <v>510.2</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I51" t="n">
         <v>-2</v>
       </c>
       <c r="J51" t="n">
-        <v>56.5</v>
+        <v>56.2</v>
       </c>
     </row>
     <row r="52">
@@ -2269,25 +2269,25 @@
         <v>270.6</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E52" t="n">
         <v>92.8</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G52" t="n">
-        <v>122.6</v>
+        <v>124.1</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I52" t="n">
         <v>23.9</v>
       </c>
       <c r="J52" t="n">
-        <v>-5.4</v>
+        <v>-5.6</v>
       </c>
     </row>
     <row r="53">
@@ -2303,25 +2303,25 @@
         <v>2986.2</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E53" t="n">
         <v>1895.05</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G53" t="n">
-        <v>1062.75</v>
+        <v>1049.25</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I53" t="n">
         <v>9.5</v>
       </c>
       <c r="J53" t="n">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="54">
@@ -2337,25 +2337,25 @@
         <v>336.15</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E54" t="n">
         <v>360.7</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G54" t="n">
-        <v>522.45</v>
+        <v>526.2</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I54" t="n">
         <v>-1.4</v>
       </c>
       <c r="J54" t="n">
-        <v>-7.1</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="55">
@@ -2371,25 +2371,25 @@
         <v>731.85</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E55" t="n">
         <v>1317.85</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G55" t="n">
-        <v>273.1</v>
+        <v>285.15</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I55" t="n">
         <v>-11.1</v>
       </c>
       <c r="J55" t="n">
-        <v>37</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="56">
@@ -2405,25 +2405,25 @@
         <v>1070.95</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E56" t="n">
         <v>611.5</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G56" t="n">
-        <v>420.45</v>
+        <v>416.15</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I56" t="n">
         <v>11.9</v>
       </c>
       <c r="J56" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -2439,7 +2439,7 @@
         <v>1490.5</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         </is>
       </c>
       <c r="F57" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="H57" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2481,25 +2481,25 @@
         <v>224.75</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E58" t="n">
         <v>266.65</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G58" t="n">
-        <v>358.7</v>
+        <v>363.8</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I58" t="n">
         <v>-3.4</v>
       </c>
       <c r="J58" t="n">
-        <v>-5.8</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="59">
@@ -2515,25 +2515,25 @@
         <v>3951.2</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E59" t="n">
         <v>653.8</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G59" t="n">
-        <v>249.15</v>
+        <v>251.3</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I59" t="n">
         <v>43.3</v>
       </c>
       <c r="J59" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="60">
@@ -2549,19 +2549,19 @@
         <v>1520.15</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E60" t="n">
         <v>1102.6</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G60" t="n">
-        <v>1527.05</v>
+        <v>1523.9</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I60" t="n">
         <v>6.6</v>
@@ -2583,25 +2583,25 @@
         <v>740.25</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E61" t="n">
         <v>1370.75</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G61" t="n">
-        <v>915.2</v>
+        <v>936.8</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I61" t="n">
         <v>-11.6</v>
       </c>
       <c r="J61" t="n">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="62">
@@ -2617,25 +2617,25 @@
         <v>897.45</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E62" t="n">
         <v>556.9</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G62" t="n">
-        <v>263.7</v>
+        <v>258.2</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I62" t="n">
         <v>10</v>
       </c>
       <c r="J62" t="n">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="63">
@@ -2651,13 +2651,13 @@
         <v>344.45</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E63" t="n">
         <v>270.6</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         </is>
       </c>
       <c r="H63" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I63" t="n">
         <v>4.9</v>
@@ -2689,25 +2689,25 @@
         <v>1385.65</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E64" t="n">
         <v>913.05</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G64" t="n">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I64" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="J64" t="n">
-        <v>12</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="65">
@@ -2723,25 +2723,25 @@
         <v>380.15</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E65" t="n">
         <v>256.7</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G65" t="n">
-        <v>235.2</v>
+        <v>237.75</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I65" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="J65" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="66">
@@ -2757,25 +2757,25 @@
         <v>561.55</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E66" t="n">
         <v>349</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G66" t="n">
-        <v>129.7</v>
+        <v>128</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I66" t="n">
         <v>10</v>
       </c>
       <c r="J66" t="n">
-        <v>21.9</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="67">
@@ -2791,7 +2791,7 @@
         <v>1887.7</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2799,7 +2799,7 @@
         </is>
       </c>
       <c r="F67" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
         </is>
       </c>
       <c r="H67" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2833,19 +2833,19 @@
         <v>1989.15</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E68" t="n">
         <v>230.25</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G68" t="n">
-        <v>272.35</v>
+        <v>273</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I68" t="n">
         <v>53.9</v>
@@ -2867,7 +2867,7 @@
         <v>331.9</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2883,7 +2883,7 @@
         </is>
       </c>
       <c r="H69" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -2909,7 +2909,7 @@
         <v>180.2</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="H70" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -2951,25 +2951,25 @@
         <v>3372.65</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E71" t="n">
         <v>1099.05</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G71" t="n">
-        <v>1105.8</v>
+        <v>1110.3</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I71" t="n">
         <v>25.1</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="72">
@@ -2985,13 +2985,13 @@
         <v>3897.3</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E72" t="n">
         <v>4187.55</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
         </is>
       </c>
       <c r="H72" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I72" t="n">
         <v>-1.4</v>
@@ -3023,13 +3023,13 @@
         <v>2200.15</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E73" t="n">
         <v>884.65</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="H73" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I73" t="n">
         <v>20</v>
@@ -3061,25 +3061,25 @@
         <v>4235.05</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E74" t="n">
         <v>2404.15</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G74" t="n">
-        <v>1837.7</v>
+        <v>1889.35</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I74" t="n">
         <v>12</v>
       </c>
       <c r="J74" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="75">
@@ -3095,25 +3095,25 @@
         <v>3228.85</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E75" t="n">
         <v>29893.15</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G75" t="n">
-        <v>2855.35</v>
+        <v>2822.7</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I75" t="n">
         <v>-35.9</v>
       </c>
       <c r="J75" t="n">
-        <v>59.9</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="76">
@@ -3129,25 +3129,25 @@
         <v>430</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E76" t="n">
         <v>1335.8</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G76" t="n">
-        <v>601.5</v>
+        <v>584.65</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I76" t="n">
         <v>-20.3</v>
       </c>
       <c r="J76" t="n">
-        <v>17.3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -3163,13 +3163,13 @@
         <v>1375.4</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E77" t="n">
         <v>1362.5</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="H77" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I77" t="n">
         <v>0.2</v>
@@ -3201,25 +3201,25 @@
         <v>2140.6</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E78" t="n">
         <v>774.35</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G78" t="n">
-        <v>73.05</v>
+        <v>75.5</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I78" t="n">
         <v>22.6</v>
       </c>
       <c r="J78" t="n">
-        <v>60.3</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="79">
@@ -3235,7 +3235,7 @@
         <v>155.15</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         </is>
       </c>
       <c r="F79" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="H79" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -3277,25 +3277,25 @@
         <v>137.7</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E80" t="n">
         <v>108.7</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G80" t="n">
-        <v>543.25</v>
+        <v>526.85</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I80" t="n">
         <v>4.8</v>
       </c>
       <c r="J80" t="n">
-        <v>-27.5</v>
+        <v>-27.1</v>
       </c>
     </row>
     <row r="81">
@@ -3311,25 +3311,25 @@
         <v>281.95</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E81" t="n">
         <v>157.4</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G81" t="n">
-        <v>114.8</v>
+        <v>114.55</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I81" t="n">
         <v>12.4</v>
       </c>
       <c r="J81" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="82">
@@ -3345,25 +3345,25 @@
         <v>96.59999999999999</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E82" t="n">
         <v>498.65</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G82" t="n">
-        <v>364.75</v>
+        <v>371.15</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I82" t="n">
         <v>-28</v>
       </c>
       <c r="J82" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="83">
@@ -3379,25 +3379,25 @@
         <v>40.75</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E83" t="n">
         <v>22.3</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G83" t="n">
-        <v>20.4</v>
+        <v>19.95</v>
       </c>
       <c r="H83" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I83" t="n">
         <v>12.8</v>
       </c>
       <c r="J83" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="84">
@@ -3413,13 +3413,13 @@
         <v>187.8</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E84" t="n">
         <v>764.75</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         </is>
       </c>
       <c r="H84" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I84" t="n">
         <v>-24.5</v>
@@ -3451,7 +3451,7 @@
         <v>1575.9</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3459,7 +3459,7 @@
         </is>
       </c>
       <c r="F85" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="H85" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -3493,25 +3493,25 @@
         <v>1316.3</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E86" t="n">
         <v>2463</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G86" t="n">
-        <v>2140.15</v>
+        <v>2160.05</v>
       </c>
       <c r="H86" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I86" t="n">
         <v>-11.8</v>
       </c>
       <c r="J86" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="87">
@@ -3527,25 +3527,25 @@
         <v>893.5</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E87" t="n">
         <v>986.25</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G87" t="n">
-        <v>718.15</v>
+        <v>724.95</v>
       </c>
       <c r="H87" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I87" t="n">
         <v>-2</v>
       </c>
       <c r="J87" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="88">
@@ -3561,25 +3561,25 @@
         <v>435.05</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E88" t="n">
         <v>602.25</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G88" t="n">
-        <v>311.2</v>
+        <v>321.15</v>
       </c>
       <c r="H88" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I88" t="n">
         <v>-6.3</v>
       </c>
       <c r="J88" t="n">
-        <v>14.1</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="89">
@@ -3595,25 +3595,25 @@
         <v>1236.35</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E89" t="n">
         <v>703.85</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G89" t="n">
-        <v>660.4</v>
+        <v>651.2</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I89" t="n">
         <v>11.9</v>
       </c>
       <c r="J89" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="90">
@@ -3629,25 +3629,25 @@
         <v>1731.3</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E90" t="n">
         <v>1143.95</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G90" t="n">
-        <v>3192.45</v>
+        <v>3189.5</v>
       </c>
       <c r="H90" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I90" t="n">
         <v>8.6</v>
       </c>
       <c r="J90" t="n">
-        <v>-18.6</v>
+        <v>-18.5</v>
       </c>
     </row>
     <row r="91">
@@ -3663,25 +3663,25 @@
         <v>1828.65</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E91" t="n">
         <v>544.85</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G91" t="n">
-        <v>267.9</v>
+        <v>272.4</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I91" t="n">
         <v>27.4</v>
       </c>
       <c r="J91" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="92">
@@ -3697,7 +3697,7 @@
         <v>3120.9</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="F92" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         </is>
       </c>
       <c r="H92" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -3739,13 +3739,13 @@
         <v>490.15</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E93" t="n">
         <v>844.15</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         </is>
       </c>
       <c r="H93" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I93" t="n">
         <v>-10.3</v>
@@ -3777,25 +3777,25 @@
         <v>269.95</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E94" t="n">
         <v>224.7</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G94" t="n">
-        <v>76.09999999999999</v>
+        <v>80.8</v>
       </c>
       <c r="H94" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I94" t="n">
         <v>3.7</v>
       </c>
       <c r="J94" t="n">
-        <v>24.2</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="95">
@@ -3811,25 +3811,25 @@
         <v>1039.45</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E95" t="n">
         <v>878.7</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G95" t="n">
-        <v>625.25</v>
+        <v>634.05</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I95" t="n">
         <v>3.4</v>
       </c>
       <c r="J95" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="96">
@@ -3845,7 +3845,7 @@
         <v>2190.05</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         </is>
       </c>
       <c r="F96" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="H96" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -3887,25 +3887,25 @@
         <v>1628.7</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E97" t="n">
         <v>1854.5</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G97" t="n">
-        <v>687.35</v>
+        <v>679.35</v>
       </c>
       <c r="H97" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I97" t="n">
         <v>-2.6</v>
       </c>
       <c r="J97" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="98">
@@ -3921,13 +3921,13 @@
         <v>570.3</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E98" t="n">
         <v>389.65</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         </is>
       </c>
       <c r="H98" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I98" t="n">
         <v>7.9</v>
@@ -3959,7 +3959,7 @@
         <v>884.15</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="F99" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         </is>
       </c>
       <c r="H99" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -4001,13 +4001,13 @@
         <v>900.1</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E100" t="n">
         <v>824.85</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="H100" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I100" t="n">
         <v>1.8</v>
@@ -4039,25 +4039,25 @@
         <v>1100.6</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E101" t="n">
         <v>554.45</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G101" t="n">
-        <v>649.05</v>
+        <v>636.75</v>
       </c>
       <c r="H101" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I101" t="n">
         <v>14.7</v>
       </c>
       <c r="J101" t="n">
-        <v>-3.1</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="102">
@@ -4073,25 +4073,25 @@
         <v>2715.9</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E102" t="n">
         <v>3749.1</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G102" t="n">
-        <v>1905.35</v>
+        <v>1887.95</v>
       </c>
       <c r="H102" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I102" t="n">
         <v>-6.2</v>
       </c>
       <c r="J102" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="103">
@@ -4107,25 +4107,25 @@
         <v>487.05</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E103" t="n">
         <v>271.15</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G103" t="n">
-        <v>135</v>
+        <v>132.55</v>
       </c>
       <c r="H103" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I103" t="n">
         <v>12.4</v>
       </c>
       <c r="J103" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="104">
@@ -4141,7 +4141,7 @@
         <v>2540.5</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="F104" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         </is>
       </c>
       <c r="H104" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -4183,25 +4183,25 @@
         <v>237.1</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E105" t="n">
         <v>413.75</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G105" t="n">
-        <v>296.8</v>
+        <v>313.8</v>
       </c>
       <c r="H105" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I105" t="n">
         <v>-10.5</v>
       </c>
       <c r="J105" t="n">
-        <v>6.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="106">
@@ -4217,25 +4217,25 @@
         <v>2558.4</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E106" t="n">
         <v>1344.5</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G106" t="n">
-        <v>530.5</v>
+        <v>534.7</v>
       </c>
       <c r="H106" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I106" t="n">
         <v>13.7</v>
       </c>
       <c r="J106" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
     </row>
     <row r="107">
@@ -4251,25 +4251,25 @@
         <v>325.1</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E107" t="n">
         <v>308.95</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G107" t="n">
-        <v>138</v>
+        <v>139.85</v>
       </c>
       <c r="H107" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>17.5</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="108">
@@ -4285,19 +4285,19 @@
         <v>40818.6</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E108" t="n">
         <v>19349.85</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G108" t="n">
-        <v>2713.3</v>
+        <v>2714.55</v>
       </c>
       <c r="H108" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I108" t="n">
         <v>16.1</v>
@@ -4319,25 +4319,25 @@
         <v>2652.4</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E109" t="n">
         <v>1683.75</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G109" t="n">
-        <v>846.6</v>
+        <v>837.7</v>
       </c>
       <c r="H109" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I109" t="n">
         <v>9.5</v>
       </c>
       <c r="J109" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110">
@@ -4353,25 +4353,25 @@
         <v>902.45</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E110" t="n">
         <v>310.3</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G110" t="n">
-        <v>1174</v>
+        <v>1182.4</v>
       </c>
       <c r="H110" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I110" t="n">
         <v>23.8</v>
       </c>
       <c r="J110" t="n">
-        <v>-23.4</v>
+        <v>-23.5</v>
       </c>
     </row>
     <row r="111">
@@ -4387,13 +4387,13 @@
         <v>1241.35</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E111" t="n">
         <v>795.5</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         </is>
       </c>
       <c r="H111" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I111" t="n">
         <v>9.300000000000001</v>
@@ -4425,13 +4425,13 @@
         <v>452.4</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E112" t="n">
         <v>382.3</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         </is>
       </c>
       <c r="H112" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I112" t="n">
         <v>3.4</v>
@@ -4463,7 +4463,7 @@
         <v>494.75</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="F113" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4479,7 +4479,7 @@
         </is>
       </c>
       <c r="H113" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -4505,13 +4505,13 @@
         <v>61.15</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E114" t="n">
         <v>54.85</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4519,7 +4519,7 @@
         </is>
       </c>
       <c r="H114" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I114" t="n">
         <v>2.2</v>
@@ -4543,25 +4543,25 @@
         <v>332.85</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E115" t="n">
         <v>262.3</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G115" t="n">
-        <v>285.4</v>
+        <v>282.4</v>
       </c>
       <c r="H115" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I115" t="n">
         <v>4.9</v>
       </c>
       <c r="J115" t="n">
-        <v>-1.7</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="116">
@@ -4577,7 +4577,7 @@
         <v>4327.35</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         </is>
       </c>
       <c r="F116" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         </is>
       </c>
       <c r="H116" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -4619,25 +4619,25 @@
         <v>295.75</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E117" t="n">
         <v>377.15</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G117" t="n">
-        <v>211.6</v>
+        <v>215.25</v>
       </c>
       <c r="H117" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I117" t="n">
         <v>-4.7</v>
       </c>
       <c r="J117" t="n">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="118">
@@ -4653,13 +4653,13 @@
         <v>142.25</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E118" t="n">
         <v>1608.4</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         </is>
       </c>
       <c r="H118" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I118" t="n">
         <v>-38.4</v>
@@ -4691,25 +4691,25 @@
         <v>317.2</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E119" t="n">
         <v>118.5</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G119" t="n">
-        <v>64.25</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="H119" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I119" t="n">
         <v>21.8</v>
       </c>
       <c r="J119" t="n">
-        <v>13</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="120">
@@ -4725,25 +4725,25 @@
         <v>78</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E120" t="n">
         <v>389.95</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G120" t="n">
-        <v>272</v>
+        <v>281.15</v>
       </c>
       <c r="H120" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I120" t="n">
         <v>-27.5</v>
       </c>
       <c r="J120" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="121">
@@ -4759,7 +4759,7 @@
         <v>642.35</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="F121" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4775,7 +4775,7 @@
         </is>
       </c>
       <c r="H121" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>32.9</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4809,7 +4809,7 @@
         </is>
       </c>
       <c r="F122" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         </is>
       </c>
       <c r="H122" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -4843,25 +4843,25 @@
         <v>419.1</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E123" t="n">
         <v>339.75</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G123" t="n">
-        <v>250.8</v>
+        <v>252.7</v>
       </c>
       <c r="H123" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I123" t="n">
         <v>4.3</v>
       </c>
       <c r="J123" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="124">
@@ -4877,25 +4877,25 @@
         <v>189.95</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E124" t="n">
         <v>369.95</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G124" t="n">
-        <v>201.5</v>
+        <v>207.15</v>
       </c>
       <c r="H124" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I124" t="n">
         <v>-12.5</v>
       </c>
       <c r="J124" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="125">
@@ -4911,25 +4911,25 @@
         <v>1226.35</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E125" t="n">
         <v>1623.85</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G125" t="n">
-        <v>433</v>
+        <v>430.75</v>
       </c>
       <c r="H125" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I125" t="n">
         <v>-5.5</v>
       </c>
       <c r="J125" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="126">
@@ -4945,25 +4945,25 @@
         <v>3911.5</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E126" t="n">
         <v>1380.75</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G126" t="n">
-        <v>342.9</v>
+        <v>336.7</v>
       </c>
       <c r="H126" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I126" t="n">
         <v>23.2</v>
       </c>
       <c r="J126" t="n">
-        <v>32.1</v>
+        <v>32.6</v>
       </c>
     </row>
     <row r="127">
@@ -4979,25 +4979,25 @@
         <v>1524</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E127" t="n">
         <v>1033.55</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G127" t="n">
-        <v>2309.2</v>
+        <v>2349.55</v>
       </c>
       <c r="H127" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I127" t="n">
         <v>8.1</v>
       </c>
       <c r="J127" t="n">
-        <v>-14.9</v>
+        <v>-15.1</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5013,13 @@
         <v>2042.75</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E128" t="n">
         <v>1203</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         </is>
       </c>
       <c r="H128" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I128" t="n">
         <v>11.2</v>
@@ -5051,25 +5051,25 @@
         <v>836.7</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E129" t="n">
         <v>599.8</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G129" t="n">
-        <v>515.4</v>
+        <v>506.9</v>
       </c>
       <c r="H129" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I129" t="n">
         <v>6.9</v>
       </c>
       <c r="J129" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="130">
@@ -5085,25 +5085,25 @@
         <v>2955.95</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E130" t="n">
         <v>1113.7</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G130" t="n">
-        <v>357.35</v>
+        <v>341.75</v>
       </c>
       <c r="H130" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I130" t="n">
         <v>21.6</v>
       </c>
       <c r="J130" t="n">
-        <v>25.5</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="131">
@@ -5119,25 +5119,25 @@
         <v>293.55</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E131" t="n">
         <v>91.05</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G131" t="n">
-        <v>68.45</v>
+        <v>68.05</v>
       </c>
       <c r="H131" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I131" t="n">
         <v>26.4</v>
       </c>
       <c r="J131" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132">
@@ -5153,19 +5153,19 @@
         <v>775.3</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E132" t="n">
         <v>265.8</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G132" t="n">
-        <v>827.3</v>
+        <v>827.55</v>
       </c>
       <c r="H132" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I132" t="n">
         <v>23.9</v>
@@ -5187,25 +5187,25 @@
         <v>594.65</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E133" t="n">
         <v>206.2</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G133" t="n">
-        <v>466.15</v>
+        <v>457.8</v>
       </c>
       <c r="H133" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I133" t="n">
         <v>23.6</v>
       </c>
       <c r="J133" t="n">
-        <v>-15.1</v>
+        <v>-14.7</v>
       </c>
     </row>
     <row r="134">
@@ -5221,25 +5221,25 @@
         <v>505.05</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E134" t="n">
         <v>1776.6</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G134" t="n">
-        <v>1325.2</v>
+        <v>1320.5</v>
       </c>
       <c r="H134" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I134" t="n">
         <v>-22.2</v>
       </c>
       <c r="J134" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="135">
@@ -5255,25 +5255,25 @@
         <v>520.2</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E135" t="n">
         <v>801.75</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G135" t="n">
-        <v>134.75</v>
+        <v>137.45</v>
       </c>
       <c r="H135" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I135" t="n">
         <v>-8.300000000000001</v>
       </c>
       <c r="J135" t="n">
-        <v>42.9</v>
+        <v>42.3</v>
       </c>
     </row>
     <row r="136">
@@ -5289,19 +5289,19 @@
         <v>1154.75</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E136" t="n">
         <v>725.1</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G136" t="n">
         <v>234.85</v>
       </c>
       <c r="H136" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I136" t="n">
         <v>9.800000000000001</v>
@@ -5323,25 +5323,25 @@
         <v>436.85</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E137" t="n">
         <v>566.7</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G137" t="n">
-        <v>1114.5</v>
+        <v>1106.15</v>
       </c>
       <c r="H137" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I137" t="n">
         <v>-5.1</v>
       </c>
       <c r="J137" t="n">
-        <v>-12.7</v>
+        <v>-12.5</v>
       </c>
     </row>
     <row r="138">
@@ -5357,25 +5357,25 @@
         <v>1825.05</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E138" t="n">
         <v>999.95</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G138" t="n">
-        <v>656.9</v>
+        <v>650.2</v>
       </c>
       <c r="H138" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I138" t="n">
         <v>12.8</v>
       </c>
       <c r="J138" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139">
@@ -5391,13 +5391,13 @@
         <v>89.84999999999999</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E139" t="n">
         <v>172.9</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="H139" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I139" t="n">
         <v>-12.3</v>
@@ -5429,13 +5429,13 @@
         <v>3723.5</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E140" t="n">
         <v>1073.45</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         </is>
       </c>
       <c r="H140" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I140" t="n">
         <v>28.2</v>
@@ -5467,19 +5467,19 @@
         <v>424.45</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E141" t="n">
         <v>565.7</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G141" t="n">
-        <v>294.9</v>
+        <v>295</v>
       </c>
       <c r="H141" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I141" t="n">
         <v>-5.6</v>
@@ -5501,13 +5501,13 @@
         <v>4322.1</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E142" t="n">
         <v>1145.4</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -5515,7 +5515,7 @@
         </is>
       </c>
       <c r="H142" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I142" t="n">
         <v>30.4</v>
@@ -5539,25 +5539,25 @@
         <v>2089.45</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E143" t="n">
         <v>1260.7</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G143" t="n">
-        <v>1649.55</v>
+        <v>1628</v>
       </c>
       <c r="H143" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I143" t="n">
         <v>10.6</v>
       </c>
       <c r="J143" t="n">
-        <v>-5.2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="144">
@@ -5573,13 +5573,13 @@
         <v>373.4</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E144" t="n">
         <v>539.6</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         </is>
       </c>
       <c r="H144" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I144" t="n">
         <v>-7.1</v>
@@ -5611,7 +5611,7 @@
         <v>709.5</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5619,7 +5619,7 @@
         </is>
       </c>
       <c r="F145" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="H145" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -5653,19 +5653,19 @@
         <v>3540.45</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E146" t="n">
         <v>534</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G146" t="n">
-        <v>386.55</v>
+        <v>385.55</v>
       </c>
       <c r="H146" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I146" t="n">
         <v>46</v>
@@ -5687,25 +5687,25 @@
         <v>732.85</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E147" t="n">
         <v>883.25</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G147" t="n">
-        <v>614.9</v>
+        <v>604.5</v>
       </c>
       <c r="H147" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I147" t="n">
         <v>-3.7</v>
       </c>
       <c r="J147" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="148">
@@ -5721,25 +5721,25 @@
         <v>88051.2</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E148" t="n">
         <v>72402.85000000001</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G148" t="n">
-        <v>13316.2</v>
+        <v>13361.1</v>
       </c>
       <c r="H148" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I148" t="n">
         <v>4</v>
       </c>
       <c r="J148" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="149">
@@ -5755,7 +5755,7 @@
         <v>1101.05</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         </is>
       </c>
       <c r="F149" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="H149" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>1101.05</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="F150" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="H150" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -5839,25 +5839,25 @@
         <v>1262.85</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E151" t="n">
         <v>744.65</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G151" t="n">
-        <v>938.6</v>
+        <v>941.25</v>
       </c>
       <c r="H151" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I151" t="n">
         <v>11.1</v>
       </c>
       <c r="J151" t="n">
-        <v>-4.5</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="152">
@@ -5873,25 +5873,25 @@
         <v>506.25</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E152" t="n">
         <v>320.7</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G152" t="n">
-        <v>220.1</v>
+        <v>224.75</v>
       </c>
       <c r="H152" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I152" t="n">
         <v>9.6</v>
       </c>
       <c r="J152" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="153">
@@ -5907,25 +5907,25 @@
         <v>8403.299999999999</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E153" t="n">
         <v>9651.9</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G153" t="n">
-        <v>1557.4</v>
+        <v>1545.45</v>
       </c>
       <c r="H153" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I153" t="n">
         <v>-2.7</v>
       </c>
       <c r="J153" t="n">
-        <v>44</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="154">
@@ -5941,25 +5941,25 @@
         <v>683.55</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E154" t="n">
         <v>597.05</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G154" t="n">
-        <v>248.4</v>
+        <v>251.45</v>
       </c>
       <c r="H154" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I154" t="n">
         <v>2.7</v>
       </c>
       <c r="J154" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="155">
@@ -5975,7 +5975,7 @@
         <v>447.6</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         </is>
       </c>
       <c r="F155" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         </is>
       </c>
       <c r="H155" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
         <v>58.15</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         </is>
       </c>
       <c r="F156" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -6033,7 +6033,7 @@
         </is>
       </c>
       <c r="H156" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -6059,25 +6059,25 @@
         <v>1969.4</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E157" t="n">
         <v>738.25</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G157" t="n">
-        <v>383.7</v>
+        <v>393.5</v>
       </c>
       <c r="H157" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I157" t="n">
         <v>21.7</v>
       </c>
       <c r="J157" t="n">
-        <v>14</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="158">
@@ -6093,25 +6093,25 @@
         <v>1091.7</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E158" t="n">
         <v>470.3</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G158" t="n">
-        <v>209.85</v>
+        <v>228.3</v>
       </c>
       <c r="H158" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I158" t="n">
         <v>18.3</v>
       </c>
       <c r="J158" t="n">
-        <v>17.5</v>
+        <v>15.6</v>
       </c>
     </row>
     <row r="159">
@@ -6127,25 +6127,25 @@
         <v>555.1</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E159" t="n">
         <v>986.3</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G159" t="n">
-        <v>459.45</v>
+        <v>462.5</v>
       </c>
       <c r="H159" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I159" t="n">
         <v>-10.9</v>
       </c>
       <c r="J159" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="160">
@@ -6161,25 +6161,25 @@
         <v>39.95</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E160" t="n">
         <v>32.2</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G160" t="n">
-        <v>25.25</v>
+        <v>25.15</v>
       </c>
       <c r="H160" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I160" t="n">
         <v>4.4</v>
       </c>
       <c r="J160" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="161">
@@ -6195,25 +6195,25 @@
         <v>168</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E161" t="n">
         <v>176.55</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G161" t="n">
-        <v>157.5</v>
+        <v>158.9</v>
       </c>
       <c r="H161" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I161" t="n">
         <v>-1</v>
       </c>
       <c r="J161" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="162">
@@ -6229,25 +6229,25 @@
         <v>83.7</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E162" t="n">
         <v>85.7</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G162" t="n">
-        <v>51</v>
+        <v>50.25</v>
       </c>
       <c r="H162" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I162" t="n">
         <v>-0.5</v>
       </c>
       <c r="J162" t="n">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="163">
@@ -6263,25 +6263,25 @@
         <v>4122.4</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E163" t="n">
         <v>827</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G163" t="n">
-        <v>293.4</v>
+        <v>296.15</v>
       </c>
       <c r="H163" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I163" t="n">
         <v>37.9</v>
       </c>
       <c r="J163" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="164">
@@ -6297,25 +6297,25 @@
         <v>19561.55</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E164" t="n">
         <v>7863.2</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G164" t="n">
-        <v>4974.3</v>
+        <v>4875.85</v>
       </c>
       <c r="H164" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I164" t="n">
         <v>20</v>
       </c>
       <c r="J164" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165">
@@ -6331,7 +6331,7 @@
         <v>19561.55</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         </is>
       </c>
       <c r="F165" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         </is>
       </c>
       <c r="H165" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -6373,25 +6373,25 @@
         <v>871.7</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E166" t="n">
         <v>480.2</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G166" t="n">
-        <v>298.2</v>
+        <v>299.95</v>
       </c>
       <c r="H166" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I166" t="n">
         <v>12.7</v>
       </c>
       <c r="J166" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="167">
@@ -6407,25 +6407,25 @@
         <v>150.45</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E167" t="n">
         <v>192.35</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G167" t="n">
-        <v>274.6</v>
+        <v>284.8</v>
       </c>
       <c r="H167" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I167" t="n">
         <v>-4.8</v>
       </c>
       <c r="J167" t="n">
-        <v>-6.9</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="168">
@@ -6441,25 +6441,25 @@
         <v>214.8</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E168" t="n">
         <v>372.95</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G168" t="n">
-        <v>470.75</v>
+        <v>481.9</v>
       </c>
       <c r="H168" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I168" t="n">
         <v>-10.4</v>
       </c>
       <c r="J168" t="n">
-        <v>-4.6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="169">
@@ -6475,7 +6475,7 @@
         <v>532.1</v>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         </is>
       </c>
       <c r="F169" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -6491,7 +6491,7 @@
         </is>
       </c>
       <c r="H169" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -6517,25 +6517,25 @@
         <v>3024</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E170" t="n">
         <v>4066.75</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G170" t="n">
-        <v>3275.55</v>
+        <v>3293.3</v>
       </c>
       <c r="H170" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I170" t="n">
         <v>-5.8</v>
       </c>
       <c r="J170" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="171">
@@ -6551,7 +6551,7 @@
         <v>452.15</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6559,7 +6559,7 @@
         </is>
       </c>
       <c r="F171" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
         </is>
       </c>
       <c r="H171" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -6593,25 +6593,25 @@
         <v>3411.05</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E172" t="n">
         <v>958.65</v>
       </c>
       <c r="F172" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G172" t="n">
-        <v>608.5</v>
+        <v>627.6</v>
       </c>
       <c r="H172" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I172" t="n">
         <v>28.9</v>
       </c>
       <c r="J172" t="n">
-        <v>9.5</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="173">
@@ -6627,19 +6627,19 @@
         <v>41921.05</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E173" t="n">
         <v>25212.95</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G173" t="n">
-        <v>3410.8</v>
+        <v>3411.3</v>
       </c>
       <c r="H173" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I173" t="n">
         <v>10.7</v>
@@ -6661,7 +6661,7 @@
         <v>41921.05</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         </is>
       </c>
       <c r="F174" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
         </is>
       </c>
       <c r="H174" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -6703,25 +6703,25 @@
         <v>4027.95</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E175" t="n">
         <v>711.8</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G175" t="n">
-        <v>524.85</v>
+        <v>535.2</v>
       </c>
       <c r="H175" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I175" t="n">
         <v>41.4</v>
       </c>
       <c r="J175" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="176">
@@ -6737,25 +6737,25 @@
         <v>216.6</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E176" t="n">
         <v>255.9</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G176" t="n">
-        <v>160.5</v>
+        <v>163.15</v>
       </c>
       <c r="H176" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I176" t="n">
         <v>-3.3</v>
       </c>
       <c r="J176" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="177">
@@ -6771,25 +6771,25 @@
         <v>4406.95</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E177" t="n">
         <v>2046.65</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G177" t="n">
-        <v>1174.1</v>
+        <v>1167.75</v>
       </c>
       <c r="H177" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I177" t="n">
         <v>16.6</v>
       </c>
       <c r="J177" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="178">
@@ -6805,25 +6805,25 @@
         <v>1425.85</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E178" t="n">
         <v>633.65</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G178" t="n">
-        <v>265.3</v>
+        <v>260.1</v>
       </c>
       <c r="H178" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I178" t="n">
         <v>17.6</v>
       </c>
       <c r="J178" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="179">
@@ -6839,25 +6839,25 @@
         <v>2530</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E179" t="n">
         <v>900</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G179" t="n">
-        <v>230.9</v>
+        <v>231.75</v>
       </c>
       <c r="H179" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I179" t="n">
         <v>23</v>
       </c>
       <c r="J179" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="180">
@@ -6873,7 +6873,7 @@
         <v>2580</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         </is>
       </c>
       <c r="F180" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         </is>
       </c>
       <c r="H180" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
@@ -6915,25 +6915,25 @@
         <v>303.45</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E181" t="n">
         <v>160.45</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G181" t="n">
-        <v>84.59999999999999</v>
+        <v>93.34999999999999</v>
       </c>
       <c r="H181" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I181" t="n">
         <v>13.6</v>
       </c>
       <c r="J181" t="n">
-        <v>13.7</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="182">
@@ -6949,25 +6949,25 @@
         <v>149.7</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E182" t="n">
         <v>123.8</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G182" t="n">
-        <v>207.45</v>
+        <v>211.8</v>
       </c>
       <c r="H182" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I182" t="n">
         <v>3.9</v>
       </c>
       <c r="J182" t="n">
-        <v>-9.800000000000001</v>
+        <v>-10.2</v>
       </c>
     </row>
     <row r="183">
@@ -6983,25 +6983,25 @@
         <v>215.05</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E183" t="n">
         <v>200.2</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G183" t="n">
-        <v>113.1</v>
+        <v>114.95</v>
       </c>
       <c r="H183" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I183" t="n">
         <v>1.4</v>
       </c>
       <c r="J183" t="n">
-        <v>12.1</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="184">
@@ -7017,25 +7017,25 @@
         <v>469.35</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E184" t="n">
         <v>315.65</v>
       </c>
       <c r="F184" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G184" t="n">
-        <v>189.55</v>
+        <v>184.65</v>
       </c>
       <c r="H184" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I184" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="J184" t="n">
-        <v>10.7</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="185">
@@ -7051,25 +7051,25 @@
         <v>14273.3</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E185" t="n">
         <v>9475</v>
       </c>
       <c r="F185" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G185" t="n">
-        <v>2726.65</v>
+        <v>2704.75</v>
       </c>
       <c r="H185" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I185" t="n">
         <v>8.5</v>
       </c>
       <c r="J185" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="186">
@@ -7085,19 +7085,19 @@
         <v>57.15</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E186" t="n">
         <v>169.75</v>
       </c>
       <c r="F186" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G186" t="n">
-        <v>905.5</v>
+        <v>908.1</v>
       </c>
       <c r="H186" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I186" t="n">
         <v>-19.6</v>
@@ -7119,25 +7119,25 @@
         <v>120.4</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E187" t="n">
         <v>158.4</v>
       </c>
       <c r="F187" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G187" t="n">
-        <v>256.5</v>
+        <v>266.05</v>
       </c>
       <c r="H187" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I187" t="n">
         <v>-5.3</v>
       </c>
       <c r="J187" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.9</v>
       </c>
     </row>
     <row r="188">
@@ -7153,25 +7153,25 @@
         <v>714.65</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E188" t="n">
         <v>804.7</v>
       </c>
       <c r="F188" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G188" t="n">
-        <v>139.25</v>
+        <v>138.8</v>
       </c>
       <c r="H188" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I188" t="n">
         <v>-2.3</v>
       </c>
       <c r="J188" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="189">
@@ -7187,19 +7187,19 @@
         <v>907.15</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E189" t="n">
         <v>686.85</v>
       </c>
       <c r="F189" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G189" t="n">
-        <v>808.15</v>
+        <v>808.1</v>
       </c>
       <c r="H189" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I189" t="n">
         <v>5.7</v>
@@ -7221,25 +7221,25 @@
         <v>2575.9</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E190" t="n">
         <v>909.75</v>
       </c>
       <c r="F190" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G190" t="n">
-        <v>847.95</v>
+        <v>861.85</v>
       </c>
       <c r="H190" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I190" t="n">
         <v>23.1</v>
       </c>
       <c r="J190" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="191">
@@ -7255,7 +7255,7 @@
         <v>794.85</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         </is>
       </c>
       <c r="F191" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="H191" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
@@ -7297,13 +7297,13 @@
         <v>1240.05</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E192" t="n">
         <v>699.5</v>
       </c>
       <c r="F192" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
         </is>
       </c>
       <c r="H192" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I192" t="n">
         <v>12.1</v>
@@ -7335,25 +7335,25 @@
         <v>4544.45</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E193" t="n">
         <v>1898.25</v>
       </c>
       <c r="F193" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G193" t="n">
-        <v>632.45</v>
+        <v>621.85</v>
       </c>
       <c r="H193" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I193" t="n">
         <v>19.1</v>
       </c>
       <c r="J193" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="194">
@@ -7369,25 +7369,25 @@
         <v>2292.45</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E194" t="n">
         <v>1967.2</v>
       </c>
       <c r="F194" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G194" t="n">
-        <v>206.95</v>
+        <v>206.45</v>
       </c>
       <c r="H194" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I194" t="n">
         <v>3.1</v>
       </c>
       <c r="J194" t="n">
-        <v>56.9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="195">
@@ -7403,25 +7403,25 @@
         <v>75.7</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E195" t="n">
         <v>379.1</v>
       </c>
       <c r="F195" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G195" t="n">
-        <v>198.5</v>
+        <v>199.9</v>
       </c>
       <c r="H195" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I195" t="n">
         <v>-27.5</v>
       </c>
       <c r="J195" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="196">
@@ -7437,25 +7437,25 @@
         <v>5835.65</v>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E196" t="n">
         <v>4699.2</v>
       </c>
       <c r="F196" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G196" t="n">
-        <v>2300</v>
+        <v>2367.55</v>
       </c>
       <c r="H196" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I196" t="n">
         <v>4.4</v>
       </c>
       <c r="J196" t="n">
-        <v>15.4</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="197">
@@ -7471,25 +7471,25 @@
         <v>2720.7</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E197" t="n">
         <v>5841.05</v>
       </c>
       <c r="F197" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G197" t="n">
-        <v>1685.9</v>
+        <v>1691.35</v>
       </c>
       <c r="H197" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I197" t="n">
         <v>-14.2</v>
       </c>
       <c r="J197" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="198">
@@ -7505,19 +7505,19 @@
         <v>23454.7</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E198" t="n">
         <v>17929.05</v>
       </c>
       <c r="F198" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G198" t="n">
-        <v>4588.3</v>
+        <v>4596.4</v>
       </c>
       <c r="H198" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I198" t="n">
         <v>5.5</v>
@@ -7539,7 +7539,7 @@
         <v>23454.7</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7547,7 +7547,7 @@
         </is>
       </c>
       <c r="F199" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="H199" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I199" t="inlineStr">
         <is>
@@ -7581,25 +7581,25 @@
         <v>2828.35</v>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E200" t="n">
         <v>1238.2</v>
       </c>
       <c r="F200" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G200" t="n">
-        <v>688.15</v>
+        <v>691.9</v>
       </c>
       <c r="H200" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I200" t="n">
         <v>18</v>
       </c>
       <c r="J200" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="201">
@@ -7615,25 +7615,25 @@
         <v>4434.15</v>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E201" t="n">
         <v>1186.2</v>
       </c>
       <c r="F201" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G201" t="n">
-        <v>958.5</v>
+        <v>981.75</v>
       </c>
       <c r="H201" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I201" t="n">
         <v>30.2</v>
       </c>
       <c r="J201" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="202">
@@ -7649,7 +7649,7 @@
         <v>419.2</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -7657,7 +7657,7 @@
         </is>
       </c>
       <c r="F202" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         </is>
       </c>
       <c r="H202" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         <v>584.3</v>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -7699,7 +7699,7 @@
         </is>
       </c>
       <c r="F203" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -7707,7 +7707,7 @@
         </is>
       </c>
       <c r="H203" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
@@ -7733,25 +7733,25 @@
         <v>612.2</v>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E204" t="n">
         <v>307.1</v>
       </c>
       <c r="F204" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G204" t="n">
-        <v>2450.55</v>
+        <v>2486.7</v>
       </c>
       <c r="H204" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I204" t="n">
         <v>14.8</v>
       </c>
       <c r="J204" t="n">
-        <v>-34</v>
+        <v>-34.2</v>
       </c>
     </row>
     <row r="205">
@@ -7767,25 +7767,25 @@
         <v>88.95</v>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E205" t="n">
         <v>92.7</v>
       </c>
       <c r="F205" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G205" t="n">
-        <v>96</v>
+        <v>95.3</v>
       </c>
       <c r="H205" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I205" t="n">
         <v>-0.8</v>
       </c>
       <c r="J205" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="206">
@@ -7801,7 +7801,7 @@
         <v>492.5</v>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         </is>
       </c>
       <c r="F206" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         </is>
       </c>
       <c r="H206" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
@@ -7843,25 +7843,25 @@
         <v>997</v>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E207" t="n">
         <v>574.05</v>
       </c>
       <c r="F207" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G207" t="n">
-        <v>740.9</v>
+        <v>735.15</v>
       </c>
       <c r="H207" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I207" t="n">
         <v>11.7</v>
       </c>
       <c r="J207" t="n">
-        <v>-5</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="208">
@@ -7877,19 +7877,19 @@
         <v>488.45</v>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E208" t="n">
         <v>998</v>
       </c>
       <c r="F208" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G208" t="n">
-        <v>440</v>
+        <v>439.15</v>
       </c>
       <c r="H208" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I208" t="n">
         <v>-13.3</v>
@@ -7911,25 +7911,25 @@
         <v>2298.45</v>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E209" t="n">
         <v>1853.95</v>
       </c>
       <c r="F209" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G209" t="n">
-        <v>526.35</v>
+        <v>533</v>
       </c>
       <c r="H209" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I209" t="n">
         <v>4.4</v>
       </c>
       <c r="J209" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="210">
@@ -7945,25 +7945,25 @@
         <v>970</v>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E210" t="n">
         <v>580.65</v>
       </c>
       <c r="F210" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G210" t="n">
-        <v>52.8</v>
+        <v>51.35</v>
       </c>
       <c r="H210" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I210" t="n">
         <v>10.8</v>
       </c>
       <c r="J210" t="n">
-        <v>61.5</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="211">
@@ -7979,25 +7979,25 @@
         <v>2407.25</v>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E211" t="n">
         <v>1305.45</v>
       </c>
       <c r="F211" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G211" t="n">
-        <v>296</v>
+        <v>298.3</v>
       </c>
       <c r="H211" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I211" t="n">
         <v>13</v>
       </c>
       <c r="J211" t="n">
-        <v>34.6</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="212">
@@ -8013,13 +8013,13 @@
         <v>579.75</v>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E212" t="n">
         <v>547.85</v>
       </c>
       <c r="F212" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -8027,7 +8027,7 @@
         </is>
       </c>
       <c r="H212" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I212" t="n">
         <v>1.1</v>
@@ -8051,25 +8051,25 @@
         <v>1073.05</v>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E213" t="n">
         <v>766.45</v>
       </c>
       <c r="F213" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G213" t="n">
-        <v>42.05</v>
+        <v>45.25</v>
       </c>
       <c r="H213" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I213" t="n">
         <v>7</v>
       </c>
       <c r="J213" t="n">
-        <v>78.7</v>
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="214">
@@ -8085,25 +8085,25 @@
         <v>941.35</v>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E214" t="n">
         <v>726</v>
       </c>
       <c r="F214" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G214" t="n">
-        <v>351.95</v>
+        <v>364.7</v>
       </c>
       <c r="H214" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I214" t="n">
         <v>5.3</v>
       </c>
       <c r="J214" t="n">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="215">
@@ -8119,25 +8119,25 @@
         <v>1317.55</v>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E215" t="n">
         <v>677.95</v>
       </c>
       <c r="F215" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G215" t="n">
-        <v>242.65</v>
+        <v>252.55</v>
       </c>
       <c r="H215" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I215" t="n">
         <v>14.2</v>
       </c>
       <c r="J215" t="n">
-        <v>22.8</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="216">
@@ -8153,25 +8153,25 @@
         <v>3261.45</v>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E216" t="n">
         <v>2645.6</v>
       </c>
       <c r="F216" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G216" t="n">
-        <v>1263.3</v>
+        <v>1299.2</v>
       </c>
       <c r="H216" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I216" t="n">
         <v>4.3</v>
       </c>
       <c r="J216" t="n">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="217">
@@ -8187,25 +8187,25 @@
         <v>762.3</v>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E217" t="n">
         <v>312.9</v>
       </c>
       <c r="F217" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G217" t="n">
-        <v>166.65</v>
+        <v>164.15</v>
       </c>
       <c r="H217" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I217" t="n">
         <v>19.5</v>
       </c>
       <c r="J217" t="n">
-        <v>13.4</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="218">
@@ -8221,25 +8221,25 @@
         <v>6300.4</v>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E218" t="n">
         <v>964.05</v>
       </c>
       <c r="F218" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G218" t="n">
-        <v>237.35</v>
+        <v>241.45</v>
       </c>
       <c r="H218" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I218" t="n">
         <v>45.6</v>
       </c>
       <c r="J218" t="n">
-        <v>32.4</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="219">
@@ -8255,25 +8255,25 @@
         <v>394.8</v>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E219" t="n">
         <v>424.45</v>
       </c>
       <c r="F219" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G219" t="n">
-        <v>318</v>
+        <v>315.4</v>
       </c>
       <c r="H219" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I219" t="n">
         <v>-1.4</v>
       </c>
       <c r="J219" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="220">
@@ -8289,25 +8289,25 @@
         <v>211.85</v>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E220" t="n">
         <v>97.15000000000001</v>
       </c>
       <c r="F220" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G220" t="n">
-        <v>112</v>
+        <v>110.2</v>
       </c>
       <c r="H220" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I220" t="n">
         <v>16.9</v>
       </c>
       <c r="J220" t="n">
-        <v>-2.8</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="221">
@@ -8323,25 +8323,25 @@
         <v>119.25</v>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E221" t="n">
         <v>722.2</v>
       </c>
       <c r="F221" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G221" t="n">
-        <v>438.15</v>
+        <v>433.5</v>
       </c>
       <c r="H221" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I221" t="n">
         <v>-30.2</v>
       </c>
       <c r="J221" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="222">
@@ -8357,7 +8357,7 @@
         <v>91.8</v>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         </is>
       </c>
       <c r="F222" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         </is>
       </c>
       <c r="H222" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
@@ -8399,25 +8399,25 @@
         <v>1009.5</v>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E223" t="n">
         <v>503.1</v>
       </c>
       <c r="F223" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G223" t="n">
-        <v>939.7</v>
+        <v>942.5</v>
       </c>
       <c r="H223" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I223" t="n">
         <v>14.9</v>
       </c>
       <c r="J223" t="n">
-        <v>-11.7</v>
+        <v>-11.8</v>
       </c>
     </row>
     <row r="224">
@@ -8433,13 +8433,13 @@
         <v>130.1</v>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E224" t="n">
         <v>610.6</v>
       </c>
       <c r="F224" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         </is>
       </c>
       <c r="H224" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I224" t="n">
         <v>-26.6</v>
@@ -8471,25 +8471,25 @@
         <v>706.15</v>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E225" t="n">
         <v>780.25</v>
       </c>
       <c r="F225" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G225" t="n">
-        <v>236.9</v>
+        <v>240.85</v>
       </c>
       <c r="H225" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I225" t="n">
         <v>-2</v>
       </c>
       <c r="J225" t="n">
-        <v>26.9</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="226">
@@ -8505,25 +8505,25 @@
         <v>1961.3</v>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E226" t="n">
         <v>1212.85</v>
       </c>
       <c r="F226" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G226" t="n">
-        <v>620.4</v>
+        <v>616.9</v>
       </c>
       <c r="H226" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I226" t="n">
         <v>10.1</v>
       </c>
       <c r="J226" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="227">
@@ -8539,25 +8539,25 @@
         <v>2565.75</v>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E227" t="n">
         <v>852.45</v>
       </c>
       <c r="F227" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G227" t="n">
-        <v>287.8</v>
+        <v>285.45</v>
       </c>
       <c r="H227" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I227" t="n">
         <v>24.7</v>
       </c>
       <c r="J227" t="n">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="228">
@@ -8573,25 +8573,25 @@
         <v>1548.8</v>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E228" t="n">
         <v>1390.45</v>
       </c>
       <c r="F228" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G228" t="n">
-        <v>728.3</v>
+        <v>726.9</v>
       </c>
       <c r="H228" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I228" t="n">
         <v>2.2</v>
       </c>
       <c r="J228" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="229">
@@ -8607,25 +8607,25 @@
         <v>500.6</v>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E229" t="n">
         <v>284.95</v>
       </c>
       <c r="F229" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G229" t="n">
-        <v>191.25</v>
+        <v>188.7</v>
       </c>
       <c r="H229" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I229" t="n">
         <v>11.9</v>
       </c>
       <c r="J229" t="n">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="230">
@@ -8641,25 +8641,25 @@
         <v>1342.15</v>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E230" t="n">
         <v>331.5</v>
       </c>
       <c r="F230" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G230" t="n">
-        <v>1303.95</v>
+        <v>1318.8</v>
       </c>
       <c r="H230" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I230" t="n">
         <v>32.3</v>
       </c>
       <c r="J230" t="n">
-        <v>-24</v>
+        <v>-24.1</v>
       </c>
     </row>
     <row r="231">
@@ -8675,25 +8675,25 @@
         <v>34.4</v>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E231" t="n">
         <v>89.5</v>
       </c>
       <c r="F231" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G231" t="n">
-        <v>9.050000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="H231" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I231" t="n">
         <v>-17.4</v>
       </c>
       <c r="J231" t="n">
-        <v>58.1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="232">
@@ -8709,13 +8709,13 @@
         <v>2785.3</v>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E232" t="n">
         <v>269.8</v>
       </c>
       <c r="F232" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         </is>
       </c>
       <c r="H232" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I232" t="n">
         <v>59.5</v>
@@ -8747,25 +8747,25 @@
         <v>523.25</v>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E233" t="n">
         <v>1277.3</v>
       </c>
       <c r="F233" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G233" t="n">
-        <v>218.25</v>
+        <v>224.75</v>
       </c>
       <c r="H233" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I233" t="n">
         <v>-16.3</v>
       </c>
       <c r="J233" t="n">
-        <v>42.4</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="234">
@@ -8781,25 +8781,25 @@
         <v>722</v>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E234" t="n">
         <v>755.75</v>
       </c>
       <c r="F234" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G234" t="n">
-        <v>131.7</v>
+        <v>135.9</v>
       </c>
       <c r="H234" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I234" t="n">
         <v>-0.9</v>
       </c>
       <c r="J234" t="n">
-        <v>41.8</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="235">
@@ -8815,25 +8815,25 @@
         <v>7017.95</v>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E235" t="n">
         <v>4256.05</v>
       </c>
       <c r="F235" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G235" t="n">
-        <v>2035.25</v>
+        <v>2041.9</v>
       </c>
       <c r="H235" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I235" t="n">
         <v>10.5</v>
       </c>
       <c r="J235" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="236">
@@ -8849,25 +8849,25 @@
         <v>81.40000000000001</v>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E236" t="n">
         <v>144.9</v>
       </c>
       <c r="F236" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G236" t="n">
-        <v>278.6</v>
+        <v>277.85</v>
       </c>
       <c r="H236" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I236" t="n">
         <v>-10.9</v>
       </c>
       <c r="J236" t="n">
-        <v>-12.3</v>
+        <v>-12.2</v>
       </c>
     </row>
     <row r="237">
@@ -8883,25 +8883,25 @@
         <v>1686.7</v>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E237" t="n">
         <v>1060.3</v>
       </c>
       <c r="F237" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G237" t="n">
-        <v>945.3</v>
+        <v>928.45</v>
       </c>
       <c r="H237" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I237" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="J237" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="238">
@@ -8917,25 +8917,25 @@
         <v>869.7</v>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E238" t="n">
         <v>3643.8</v>
       </c>
       <c r="F238" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G238" t="n">
-        <v>1982.85</v>
+        <v>1938</v>
       </c>
       <c r="H238" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I238" t="n">
         <v>-24.9</v>
       </c>
       <c r="J238" t="n">
-        <v>12.9</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="239">
@@ -8951,13 +8951,13 @@
         <v>1333.1</v>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E239" t="n">
         <v>655.4</v>
       </c>
       <c r="F239" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         </is>
       </c>
       <c r="H239" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I239" t="n">
         <v>15.3</v>
@@ -8989,7 +8989,7 @@
         <v>1360.6</v>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -8997,7 +8997,7 @@
         </is>
       </c>
       <c r="F240" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         </is>
       </c>
       <c r="H240" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
@@ -9031,25 +9031,25 @@
         <v>316.1</v>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E241" t="n">
         <v>325.45</v>
       </c>
       <c r="F241" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G241" t="n">
-        <v>202.9</v>
+        <v>201.7</v>
       </c>
       <c r="H241" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I241" t="n">
         <v>-0.6</v>
       </c>
       <c r="J241" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242">
@@ -9065,25 +9065,25 @@
         <v>2001.1</v>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E242" t="n">
         <v>991.15</v>
       </c>
       <c r="F242" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G242" t="n">
-        <v>162.5</v>
+        <v>153.5</v>
       </c>
       <c r="H242" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I242" t="n">
         <v>15.1</v>
       </c>
       <c r="J242" t="n">
-        <v>43.6</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="243">
@@ -9099,25 +9099,25 @@
         <v>8</v>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E243" t="n">
         <v>104.6</v>
       </c>
       <c r="F243" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G243" t="n">
-        <v>104.55</v>
+        <v>109.75</v>
       </c>
       <c r="H243" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I243" t="n">
         <v>-40.2</v>
       </c>
       <c r="J243" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="244">
@@ -9133,25 +9133,25 @@
         <v>802.65</v>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E244" t="n">
         <v>648.95</v>
       </c>
       <c r="F244" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G244" t="n">
-        <v>108.95</v>
+        <v>106.9</v>
       </c>
       <c r="H244" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I244" t="n">
         <v>4.3</v>
       </c>
       <c r="J244" t="n">
-        <v>42.9</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="245">
@@ -9167,25 +9167,25 @@
         <v>1496.05</v>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E245" t="n">
         <v>1625.2</v>
       </c>
       <c r="F245" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G245" t="n">
-        <v>270.75</v>
+        <v>275.15</v>
       </c>
       <c r="H245" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I245" t="n">
         <v>-1.6</v>
       </c>
       <c r="J245" t="n">
-        <v>43.1</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="246">
@@ -9201,25 +9201,25 @@
         <v>393.05</v>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E246" t="n">
         <v>316.55</v>
       </c>
       <c r="F246" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G246" t="n">
-        <v>393.75</v>
+        <v>403.65</v>
       </c>
       <c r="H246" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I246" t="n">
         <v>4.4</v>
       </c>
       <c r="J246" t="n">
-        <v>-4.3</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="247">
@@ -9235,25 +9235,25 @@
         <v>21.65</v>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E247" t="n">
         <v>312.6</v>
       </c>
       <c r="F247" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G247" t="n">
-        <v>487.85</v>
+        <v>489.05</v>
       </c>
       <c r="H247" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I247" t="n">
         <v>-41.4</v>
       </c>
       <c r="J247" t="n">
-        <v>-8.5</v>
+        <v>-8.6</v>
       </c>
     </row>
     <row r="248">
@@ -9269,7 +9269,7 @@
         <v>21.65</v>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         </is>
       </c>
       <c r="F248" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         </is>
       </c>
       <c r="H248" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I248" t="inlineStr">
         <is>
@@ -9311,25 +9311,25 @@
         <v>243.1</v>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E249" t="n">
         <v>579.2</v>
       </c>
       <c r="F249" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G249" t="n">
-        <v>231.15</v>
+        <v>227.05</v>
       </c>
       <c r="H249" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I249" t="n">
         <v>-15.9</v>
       </c>
       <c r="J249" t="n">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="250">
@@ -9345,7 +9345,7 @@
         <v>60.3</v>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         </is>
       </c>
       <c r="F250" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         </is>
       </c>
       <c r="H250" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>60.3</v>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44926</v>
+        <v>44928</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         </is>
       </c>
       <c r="F251" s="2" t="n">
-        <v>43099</v>
+        <v>43101</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         </is>
       </c>
       <c r="H251" s="2" t="n">
-        <v>41276</v>
+        <v>41278</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>

--- a/research/stock_returns.xlsx
+++ b/research/stock_returns.xlsx
@@ -494,28 +494,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21505.7</v>
+        <v>23528.35</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E2" t="n">
-        <v>19264.55</v>
+        <v>18515.1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G2" t="n">
-        <v>4149.95</v>
+        <v>1862.4</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>4.9</v>
       </c>
       <c r="J2" t="n">
-        <v>35.9</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="3">
@@ -528,28 +528,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2679.95</v>
+        <v>3128.05</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E3" t="n">
-        <v>1399.65</v>
+        <v>1594.85</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G3" t="n">
-        <v>725.7</v>
+        <v>794.15</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I3" t="n">
-        <v>13.9</v>
+        <v>14.4</v>
       </c>
       <c r="J3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -562,28 +562,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2439.75</v>
+        <v>1916</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E4" t="n">
-        <v>1731.35</v>
+        <v>1693.25</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G4" t="n">
-        <v>1434.8</v>
+        <v>875.75</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I4" t="n">
-        <v>7.1</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="5">
@@ -596,28 +596,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2584.85</v>
+        <v>2770.15</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E5" t="n">
-        <v>1536.65</v>
+        <v>1440.7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G5" t="n">
-        <v>331.9</v>
+        <v>331.7</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>35.9</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="6">
@@ -630,28 +630,32 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1106.3</v>
+        <v>1200.4</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E6" t="n">
-        <v>1980.6</v>
+        <v>2223.7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="G6" t="n">
-        <v>169.65</v>
+        <v>43139</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I6" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>63.5</v>
+        <v>-11.6</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Nothing</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -664,16 +668,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>657</v>
+        <v>640.85</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E7" t="n">
-        <v>662.85</v>
+        <v>603.45</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -681,10 +685,10 @@
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2</v>
+        <v>1.2</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -702,10 +706,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1808.2</v>
+        <v>1995.45</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -713,7 +717,7 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -721,7 +725,7 @@
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -744,28 +748,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21436.9</v>
+        <v>20846.2</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E9" t="n">
-        <v>5497.75</v>
+        <v>5463.25</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G9" t="n">
-        <v>1494.65</v>
+        <v>785.45</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I9" t="n">
-        <v>31.3</v>
+        <v>30.7</v>
       </c>
       <c r="J9" t="n">
-        <v>29.8</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="10">
@@ -778,28 +782,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3841.2</v>
+        <v>1925.7</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E10" t="n">
-        <v>166.05</v>
+        <v>204.5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G10" t="n">
-        <v>276.7</v>
+        <v>489.25</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I10" t="n">
-        <v>87.40000000000001</v>
+        <v>56.6</v>
       </c>
       <c r="J10" t="n">
-        <v>-9.699999999999999</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="11">
@@ -812,10 +816,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1888.7</v>
+        <v>762.35</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -823,7 +827,7 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -831,7 +835,7 @@
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -854,28 +858,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>822.3</v>
+        <v>582.3</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E12" t="n">
-        <v>399.65</v>
+        <v>405.1</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G12" t="n">
-        <v>137.5</v>
+        <v>637.4</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I12" t="n">
-        <v>15.5</v>
+        <v>7.5</v>
       </c>
       <c r="J12" t="n">
-        <v>23.8</v>
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -888,10 +892,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3550.6</v>
+        <v>1321.45</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -899,7 +903,7 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -907,7 +911,7 @@
         </is>
       </c>
       <c r="H13" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -930,16 +934,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2549.5</v>
+        <v>1249.1</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E14" t="n">
-        <v>219.7</v>
+        <v>197.55</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -947,10 +951,10 @@
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I14" t="n">
-        <v>63.3</v>
+        <v>44.6</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -968,10 +972,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>603.95</v>
+        <v>439.7</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -979,7 +983,7 @@
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -987,7 +991,7 @@
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1010,16 +1014,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>155.4</v>
+        <v>147.1</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E16" t="n">
-        <v>186.4</v>
+        <v>168.25</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1027,10 +1031,10 @@
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I16" t="n">
-        <v>-3.6</v>
+        <v>-2.7</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1048,16 +1052,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>286.8</v>
+        <v>256.3</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E17" t="n">
-        <v>170</v>
+        <v>154.05</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1065,10 +1069,10 @@
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1086,10 +1090,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1072.05</v>
+        <v>1043.6</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1097,7 +1101,7 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1105,7 +1109,7 @@
         </is>
       </c>
       <c r="H18" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1128,28 +1132,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1207.75</v>
+        <v>1207.2</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E19" t="n">
-        <v>1493.75</v>
+        <v>1397.8</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G19" t="n">
-        <v>388.65</v>
+        <v>154.65</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I19" t="n">
-        <v>-4.2</v>
+        <v>-2.9</v>
       </c>
       <c r="J19" t="n">
-        <v>30.9</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="20">
@@ -1162,28 +1166,32 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>568.9</v>
+        <v>521.6</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E20" t="n">
-        <v>531.2</v>
+        <v>541.75</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="G20" t="n">
-        <v>71.34999999999999</v>
+        <v>43139</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>49.4</v>
+        <v>-0.8</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Nothing</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1196,16 +1204,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3001.15</v>
+        <v>3230.45</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E21" t="n">
-        <v>2225.95</v>
+        <v>2175.2</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1213,10 +1221,10 @@
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I21" t="n">
-        <v>6.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1234,28 +1242,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2661.7</v>
+        <v>2606.85</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E22" t="n">
-        <v>658.8</v>
+        <v>626.25</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G22" t="n">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I22" t="n">
-        <v>32.2</v>
+        <v>33</v>
       </c>
       <c r="J22" t="n">
-        <v>33.6</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="23">
@@ -1268,28 +1276,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>526.5</v>
+        <v>357.8</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E23" t="n">
-        <v>268.05</v>
+        <v>261.9</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G23" t="n">
-        <v>206.1</v>
+        <v>104.75</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I23" t="n">
-        <v>14.5</v>
+        <v>6.4</v>
       </c>
       <c r="J23" t="n">
-        <v>5.4</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="24">
@@ -1302,28 +1310,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4454.35</v>
+        <v>4389.3</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E24" t="n">
-        <v>1202.55</v>
+        <v>1131.8</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G24" t="n">
-        <v>809.2</v>
+        <v>652.5</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I24" t="n">
-        <v>29.9</v>
+        <v>31.1</v>
       </c>
       <c r="J24" t="n">
-        <v>8.199999999999999</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="25">
@@ -1336,28 +1344,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>148.65</v>
+        <v>148.85</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E25" t="n">
-        <v>118.65</v>
+        <v>134.15</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G25" t="n">
-        <v>26.65</v>
+        <v>50.65</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I25" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="J25" t="n">
-        <v>34.8</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="26">
@@ -1370,28 +1378,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3047.25</v>
+        <v>2814.6</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E26" t="n">
-        <v>1143.65</v>
+        <v>1124.05</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G26" t="n">
-        <v>4402</v>
+        <v>1934.5</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I26" t="n">
-        <v>21.7</v>
+        <v>20.2</v>
       </c>
       <c r="J26" t="n">
-        <v>-23.6</v>
+        <v>-10.3</v>
       </c>
     </row>
     <row r="27">
@@ -1404,28 +1412,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1963.1</v>
+        <v>2030.25</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E27" t="n">
-        <v>835.55</v>
+        <v>794.95</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G27" t="n">
-        <v>381.7</v>
+        <v>177.7</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I27" t="n">
-        <v>18.6</v>
+        <v>20.6</v>
       </c>
       <c r="J27" t="n">
-        <v>17</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="28">
@@ -1438,28 +1446,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8207.6</v>
+        <v>7183.95</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E28" t="n">
-        <v>2752.1</v>
+        <v>2724.75</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G28" t="n">
-        <v>414.6</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I28" t="n">
-        <v>24.4</v>
+        <v>21.4</v>
       </c>
       <c r="J28" t="n">
-        <v>46</v>
+        <v>100.6</v>
       </c>
     </row>
     <row r="29">
@@ -1472,28 +1480,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>434.8</v>
+        <v>440.95</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E29" t="n">
-        <v>683.95</v>
+        <v>601.85</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G29" t="n">
-        <v>201.65</v>
+        <v>924.3</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I29" t="n">
-        <v>-8.699999999999999</v>
+        <v>-6</v>
       </c>
       <c r="J29" t="n">
-        <v>27.7</v>
+        <v>-8.199999999999999</v>
       </c>
     </row>
     <row r="30">
@@ -1506,16 +1514,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4072.75</v>
+        <v>3482.05</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E30" t="n">
-        <v>1170.5</v>
+        <v>1165.55</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1523,10 +1531,10 @@
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I30" t="n">
-        <v>28.3</v>
+        <v>24.5</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1544,28 +1552,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>941.6</v>
+        <v>867.7</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E31" t="n">
-        <v>565.5</v>
+        <v>568.45</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G31" t="n">
-        <v>1378.95</v>
+        <v>1028.85</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I31" t="n">
-        <v>10.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>-16.3</v>
+        <v>-11.2</v>
       </c>
     </row>
     <row r="32">
@@ -1578,28 +1586,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3573.95</v>
+        <v>3845.75</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E32" t="n">
-        <v>3289.25</v>
+        <v>3157.95</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G32" t="n">
-        <v>2205.6</v>
+        <v>1792.65</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I32" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>8.300000000000001</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1612,28 +1620,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6553.75</v>
+        <v>6455</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E33" t="n">
-        <v>1725.65</v>
+        <v>1662.15</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G33" t="n">
-        <v>1387.15</v>
+        <v>288.2</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I33" t="n">
-        <v>30.6</v>
+        <v>31.2</v>
       </c>
       <c r="J33" t="n">
-        <v>4.5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
@@ -1646,28 +1654,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1552.5</v>
+        <v>1400.25</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E34" t="n">
-        <v>5171.85</v>
+        <v>5057.25</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G34" t="n">
-        <v>930.6</v>
+        <v>337.85</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I34" t="n">
-        <v>-21.4</v>
+        <v>-22.7</v>
       </c>
       <c r="J34" t="n">
-        <v>40.9</v>
+        <v>71.8</v>
       </c>
     </row>
     <row r="35">
@@ -1680,28 +1688,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5607.15</v>
+        <v>6061.3</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E35" t="n">
-        <v>2864.45</v>
+        <v>2709.75</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G35" t="n">
-        <v>1032.8</v>
+        <v>557.4</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I35" t="n">
-        <v>14.4</v>
+        <v>17.5</v>
       </c>
       <c r="J35" t="n">
-        <v>22.6</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="36">
@@ -1714,28 +1722,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2128</v>
+        <v>2302.45</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E36" t="n">
-        <v>1195.45</v>
+        <v>1131.25</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G36" t="n">
-        <v>309.45</v>
+        <v>590.2</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I36" t="n">
-        <v>12.2</v>
+        <v>15.3</v>
       </c>
       <c r="J36" t="n">
-        <v>31</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="37">
@@ -1748,10 +1756,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>240.15</v>
+        <v>242.05</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1759,7 +1767,7 @@
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1767,7 +1775,7 @@
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -1790,28 +1798,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>186.25</v>
+        <v>169.45</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E38" t="n">
-        <v>161.5</v>
+        <v>156.2</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G38" t="n">
-        <v>884.3</v>
+        <v>554.25</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I38" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="J38" t="n">
-        <v>-28.8</v>
+        <v>-22.4</v>
       </c>
     </row>
     <row r="39">
@@ -1824,28 +1832,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>91.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E39" t="n">
-        <v>169.9</v>
+        <v>142.35</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G39" t="n">
-        <v>364.6</v>
+        <v>326.3</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I39" t="n">
-        <v>-11.6</v>
+        <v>-10.8</v>
       </c>
       <c r="J39" t="n">
-        <v>-14.2</v>
+        <v>-15.3</v>
       </c>
     </row>
     <row r="40">
@@ -1858,28 +1866,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1653.55</v>
+        <v>1514.6</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E40" t="n">
-        <v>755.3</v>
+        <v>710.55</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G40" t="n">
-        <v>878.3</v>
+        <v>182.4</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I40" t="n">
-        <v>17</v>
+        <v>16.3</v>
       </c>
       <c r="J40" t="n">
-        <v>-3</v>
+        <v>31.3</v>
       </c>
     </row>
     <row r="41">
@@ -1892,28 +1900,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4896.05</v>
+        <v>4449.05</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E41" t="n">
-        <v>4455.5</v>
+        <v>3958.85</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G41" t="n">
-        <v>1250.9</v>
+        <v>541.35</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I41" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="J41" t="n">
-        <v>28.9</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="42">
@@ -1926,28 +1934,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>577.3</v>
+        <v>568.55</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E42" t="n">
-        <v>268.9</v>
+        <v>250.8</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G42" t="n">
-        <v>155.55</v>
+        <v>55.15</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I42" t="n">
-        <v>16.5</v>
+        <v>17.8</v>
       </c>
       <c r="J42" t="n">
-        <v>11.6</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="43">
@@ -1960,28 +1968,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>100.25</v>
+        <v>95.8</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E43" t="n">
-        <v>181.45</v>
+        <v>156.95</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G43" t="n">
-        <v>1317.45</v>
+        <v>1993.5</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I43" t="n">
-        <v>-11.2</v>
+        <v>-9.4</v>
       </c>
       <c r="J43" t="n">
-        <v>-32.7</v>
+        <v>-39.9</v>
       </c>
     </row>
     <row r="44">
@@ -1994,28 +2002,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>884.05</v>
+        <v>869.55</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E44" t="n">
-        <v>723</v>
+        <v>761.2</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G44" t="n">
-        <v>262.55</v>
+        <v>247.05</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I44" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="J44" t="n">
-        <v>22.5</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="45">
@@ -2028,28 +2036,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>80.15000000000001</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E45" t="n">
         <v>95.15000000000001</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G45" t="n">
-        <v>242.8</v>
+        <v>2353.7</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I45" t="n">
-        <v>-3.4</v>
+        <v>-4.3</v>
       </c>
       <c r="J45" t="n">
-        <v>-17.1</v>
+        <v>-47.4</v>
       </c>
     </row>
     <row r="46">
@@ -2062,28 +2070,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>333.85</v>
+        <v>333.7</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E46" t="n">
-        <v>508.6</v>
+        <v>478.2</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G46" t="n">
-        <v>374</v>
+        <v>557.6</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I46" t="n">
-        <v>-8.1</v>
+        <v>-6.9</v>
       </c>
       <c r="J46" t="n">
-        <v>6.3</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="47">
@@ -2096,28 +2104,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>813.5</v>
+        <v>766.65</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E47" t="n">
-        <v>527.9</v>
+        <v>429.8</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G47" t="n">
-        <v>327</v>
+        <v>285.6</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I47" t="n">
-        <v>9</v>
+        <v>12.3</v>
       </c>
       <c r="J47" t="n">
-        <v>10.1</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="48">
@@ -2130,28 +2138,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>263.4</v>
+        <v>243.15</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E48" t="n">
-        <v>538</v>
+        <v>614.9</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G48" t="n">
-        <v>291.55</v>
+        <v>259.35</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I48" t="n">
-        <v>-13.3</v>
+        <v>-16.9</v>
       </c>
       <c r="J48" t="n">
-        <v>13</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="49">
@@ -2164,28 +2172,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>7822.75</v>
+        <v>6471</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E49" t="n">
-        <v>4600.3</v>
+        <v>4566.05</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G49" t="n">
-        <v>2061.8</v>
+        <v>628.75</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I49" t="n">
-        <v>11.2</v>
+        <v>7.2</v>
       </c>
       <c r="J49" t="n">
-        <v>17.4</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="50">
@@ -2198,28 +2206,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>17169.65</v>
+        <v>17524.8</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E50" t="n">
-        <v>19791.9</v>
+        <v>19592.25</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G50" t="n">
-        <v>9346.25</v>
+        <v>4714.35</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I50" t="n">
-        <v>-2.8</v>
+        <v>-2.2</v>
       </c>
       <c r="J50" t="n">
-        <v>16.2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -2232,28 +2240,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4292.15</v>
+        <v>4637.35</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E51" t="n">
-        <v>4738.25</v>
+        <v>4628</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G51" t="n">
-        <v>510.2</v>
+        <v>1649.9</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I51" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>56.2</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="52">
@@ -2266,28 +2274,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>270.6</v>
+        <v>311.45</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E52" t="n">
-        <v>92.8</v>
+        <v>88.8</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G52" t="n">
-        <v>124.1</v>
+        <v>419.75</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I52" t="n">
-        <v>23.9</v>
+        <v>28.5</v>
       </c>
       <c r="J52" t="n">
-        <v>-5.6</v>
+        <v>-26.7</v>
       </c>
     </row>
     <row r="53">
@@ -2300,28 +2308,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2986.2</v>
+        <v>3144.9</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E53" t="n">
-        <v>1895.05</v>
+        <v>1980.7</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G53" t="n">
-        <v>1049.25</v>
+        <v>4933.2</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I53" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>12.6</v>
+        <v>-16.7</v>
       </c>
     </row>
     <row r="54">
@@ -2334,28 +2342,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>336.15</v>
+        <v>293</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E54" t="n">
-        <v>360.7</v>
+        <v>323.15</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G54" t="n">
-        <v>526.2</v>
+        <v>382.05</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I54" t="n">
-        <v>-1.4</v>
+        <v>-1.9</v>
       </c>
       <c r="J54" t="n">
-        <v>-7.3</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="55">
@@ -2368,28 +2376,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>731.85</v>
+        <v>796.1</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E55" t="n">
-        <v>1317.85</v>
+        <v>1305.3</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G55" t="n">
-        <v>285.15</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I55" t="n">
-        <v>-11.1</v>
+        <v>-9.4</v>
       </c>
       <c r="J55" t="n">
-        <v>35.8</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="56">
@@ -2402,28 +2410,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1070.95</v>
+        <v>1021.5</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E56" t="n">
-        <v>611.5</v>
+        <v>612.65</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G56" t="n">
-        <v>416.15</v>
+        <v>316.7</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I56" t="n">
-        <v>11.9</v>
+        <v>10.8</v>
       </c>
       <c r="J56" t="n">
-        <v>8</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="57">
@@ -2436,10 +2444,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1490.5</v>
+        <v>1492.85</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2447,7 +2455,7 @@
         </is>
       </c>
       <c r="F57" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2455,7 +2463,7 @@
         </is>
       </c>
       <c r="H57" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2478,28 +2486,32 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>224.75</v>
+        <v>214.55</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E58" t="n">
-        <v>266.65</v>
+        <v>300</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="G58" t="n">
-        <v>363.8</v>
+        <v>43139</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
       <c r="H58" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I58" t="n">
-        <v>-3.4</v>
-      </c>
-      <c r="J58" t="n">
-        <v>-6</v>
+        <v>-6.5</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Nothing</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2512,28 +2524,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3951.2</v>
+        <v>4340.5</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E59" t="n">
-        <v>653.8</v>
+        <v>827.85</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G59" t="n">
-        <v>251.3</v>
+        <v>171.05</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I59" t="n">
-        <v>43.3</v>
+        <v>39.3</v>
       </c>
       <c r="J59" t="n">
-        <v>21.1</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="60">
@@ -2546,28 +2558,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1520.15</v>
+        <v>1467.15</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E60" t="n">
-        <v>1102.6</v>
+        <v>1100.85</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G60" t="n">
-        <v>1523.9</v>
+        <v>711.8</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I60" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="J60" t="n">
-        <v>-6.3</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="61">
@@ -2580,28 +2592,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>740.25</v>
+        <v>617.45</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E61" t="n">
-        <v>1370.75</v>
+        <v>1341.35</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G61" t="n">
-        <v>936.8</v>
+        <v>1249.6</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I61" t="n">
-        <v>-11.6</v>
+        <v>-14.4</v>
       </c>
       <c r="J61" t="n">
-        <v>7.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="62">
@@ -2614,28 +2626,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>897.45</v>
+        <v>918.4</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E62" t="n">
-        <v>556.9</v>
+        <v>545.75</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G62" t="n">
-        <v>258.2</v>
+        <v>262.7</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J62" t="n">
-        <v>16.6</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="63">
@@ -2648,16 +2660,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>344.45</v>
+        <v>314.3</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E63" t="n">
-        <v>270.6</v>
+        <v>243</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2665,10 +2677,10 @@
         </is>
       </c>
       <c r="H63" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I63" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -2686,28 +2698,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1385.65</v>
+        <v>1578.35</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E64" t="n">
-        <v>913.05</v>
+        <v>839.6</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G64" t="n">
-        <v>538</v>
+        <v>451.35</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I64" t="n">
-        <v>8.699999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="J64" t="n">
-        <v>11.2</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="65">
@@ -2720,28 +2732,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>380.15</v>
+        <v>356.7</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E65" t="n">
-        <v>256.7</v>
+        <v>229.35</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G65" t="n">
-        <v>237.75</v>
+        <v>303.35</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I65" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J65" t="n">
-        <v>1.5</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="66">
@@ -2754,28 +2766,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>561.55</v>
+        <v>533.25</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E66" t="n">
-        <v>349</v>
+        <v>340.3</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G66" t="n">
-        <v>128</v>
+        <v>170.7</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I66" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="J66" t="n">
-        <v>22.2</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="67">
@@ -2788,10 +2800,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1887.7</v>
+        <v>1926.25</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2799,7 +2811,7 @@
         </is>
       </c>
       <c r="F67" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2807,7 +2819,7 @@
         </is>
       </c>
       <c r="H67" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -2830,28 +2842,32 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1989.15</v>
+        <v>1806.6</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E68" t="n">
-        <v>230.25</v>
+        <v>270.1</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="G68" t="n">
-        <v>273</v>
+        <v>43139</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
       <c r="H68" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I68" t="n">
-        <v>53.9</v>
-      </c>
-      <c r="J68" t="n">
-        <v>-3.3</v>
+        <v>46.2</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Nothing</t>
+        </is>
       </c>
     </row>
     <row r="69">
@@ -2864,10 +2880,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>331.9</v>
+        <v>318.25</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2875,7 +2891,7 @@
         </is>
       </c>
       <c r="F69" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2883,7 +2899,7 @@
         </is>
       </c>
       <c r="H69" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -2906,10 +2922,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>180.2</v>
+        <v>159.45</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2917,7 +2933,7 @@
         </is>
       </c>
       <c r="F70" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2925,7 +2941,7 @@
         </is>
       </c>
       <c r="H70" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
@@ -2948,28 +2964,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3372.65</v>
+        <v>2823.15</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E71" t="n">
-        <v>1099.05</v>
+        <v>1029.9</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G71" t="n">
-        <v>1110.3</v>
+        <v>579.2</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I71" t="n">
-        <v>25.1</v>
+        <v>22.3</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.2</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="72">
@@ -2982,16 +2998,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3897.3</v>
+        <v>2690.45</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E72" t="n">
-        <v>4187.55</v>
+        <v>3513.1</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2999,10 +3015,10 @@
         </is>
       </c>
       <c r="H72" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I72" t="n">
-        <v>-1.4</v>
+        <v>-5.2</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3020,16 +3036,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2200.15</v>
+        <v>1968.1</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E73" t="n">
-        <v>884.65</v>
+        <v>893.2</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3037,10 +3053,10 @@
         </is>
       </c>
       <c r="H73" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I73" t="n">
-        <v>20</v>
+        <v>17.1</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -3058,28 +3074,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4235.05</v>
+        <v>4487.5</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E74" t="n">
-        <v>2404.15</v>
+        <v>2180.45</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G74" t="n">
-        <v>1889.35</v>
+        <v>1105.55</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I74" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="J74" t="n">
-        <v>4.9</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="75">
@@ -3092,28 +3108,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3228.85</v>
+        <v>3237.15</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E75" t="n">
-        <v>29893.15</v>
+        <v>28198</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G75" t="n">
-        <v>2822.7</v>
+        <v>518.5</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I75" t="n">
-        <v>-35.9</v>
+        <v>-35.1</v>
       </c>
       <c r="J75" t="n">
-        <v>60.3</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="76">
@@ -3126,28 +3142,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>430</v>
+        <v>410.95</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E76" t="n">
-        <v>1335.8</v>
+        <v>1115.7</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G76" t="n">
-        <v>584.65</v>
+        <v>565.3</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I76" t="n">
-        <v>-20.3</v>
+        <v>-18.1</v>
       </c>
       <c r="J76" t="n">
-        <v>18</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="77">
@@ -3160,16 +3176,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1375.4</v>
+        <v>1398.3</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E77" t="n">
-        <v>1362.5</v>
+        <v>1188.4</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3177,10 +3193,10 @@
         </is>
       </c>
       <c r="H77" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2</v>
+        <v>3.3</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -3198,28 +3214,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2140.6</v>
+        <v>1970.2</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E78" t="n">
-        <v>774.35</v>
+        <v>906.8</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G78" t="n">
-        <v>75.5</v>
+        <v>122.85</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I78" t="n">
-        <v>22.6</v>
+        <v>16.8</v>
       </c>
       <c r="J78" t="n">
-        <v>59.3</v>
+        <v>49.2</v>
       </c>
     </row>
     <row r="79">
@@ -3232,10 +3248,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>155.15</v>
+        <v>151.85</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3243,7 +3259,7 @@
         </is>
       </c>
       <c r="F79" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3251,7 +3267,7 @@
         </is>
       </c>
       <c r="H79" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -3274,28 +3290,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>137.7</v>
+        <v>129.95</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E80" t="n">
-        <v>108.7</v>
+        <v>94.75</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G80" t="n">
-        <v>526.85</v>
+        <v>247.15</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I80" t="n">
-        <v>4.8</v>
+        <v>6.5</v>
       </c>
       <c r="J80" t="n">
-        <v>-27.1</v>
+        <v>-17.4</v>
       </c>
     </row>
     <row r="81">
@@ -3308,28 +3324,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>281.95</v>
+        <v>276.6</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E81" t="n">
-        <v>157.4</v>
+        <v>126.05</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G81" t="n">
-        <v>114.55</v>
+        <v>151.35</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I81" t="n">
-        <v>12.4</v>
+        <v>17</v>
       </c>
       <c r="J81" t="n">
-        <v>6.6</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="82">
@@ -3342,28 +3358,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>96.59999999999999</v>
+        <v>95.84999999999999</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E82" t="n">
-        <v>498.65</v>
+        <v>461.85</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G82" t="n">
-        <v>371.15</v>
+        <v>406.85</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I82" t="n">
-        <v>-28</v>
+        <v>-27</v>
       </c>
       <c r="J82" t="n">
-        <v>6.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="83">
@@ -3376,28 +3392,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>40.75</v>
+        <v>38.75</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E83" t="n">
-        <v>22.3</v>
+        <v>19.35</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G83" t="n">
-        <v>19.95</v>
+        <v>55.6</v>
       </c>
       <c r="H83" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I83" t="n">
-        <v>12.8</v>
+        <v>14.9</v>
       </c>
       <c r="J83" t="n">
-        <v>2.3</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="84">
@@ -3410,16 +3426,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>187.8</v>
+        <v>163.7</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E84" t="n">
-        <v>764.75</v>
+        <v>753.65</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3427,10 +3443,10 @@
         </is>
       </c>
       <c r="H84" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I84" t="n">
-        <v>-24.5</v>
+        <v>-26.3</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -3448,10 +3464,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1575.9</v>
+        <v>1301</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3459,7 +3475,7 @@
         </is>
       </c>
       <c r="F85" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3467,7 +3483,7 @@
         </is>
       </c>
       <c r="H85" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -3490,28 +3506,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1316.3</v>
+        <v>1266.15</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E86" t="n">
-        <v>2463</v>
+        <v>2461.65</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G86" t="n">
-        <v>2160.05</v>
+        <v>1578.95</v>
       </c>
       <c r="H86" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I86" t="n">
-        <v>-11.8</v>
+        <v>-12.5</v>
       </c>
       <c r="J86" t="n">
-        <v>2.7</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="87">
@@ -3524,28 +3540,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>893.5</v>
+        <v>940.85</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E87" t="n">
-        <v>986.25</v>
+        <v>1017.55</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G87" t="n">
-        <v>724.95</v>
+        <v>255.25</v>
       </c>
       <c r="H87" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I87" t="n">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="J87" t="n">
-        <v>6.3</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="88">
@@ -3558,28 +3574,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>435.05</v>
+        <v>429.8</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E88" t="n">
-        <v>602.25</v>
+        <v>551.25</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G88" t="n">
-        <v>321.15</v>
+        <v>145.65</v>
       </c>
       <c r="H88" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I88" t="n">
-        <v>-6.3</v>
+        <v>-4.9</v>
       </c>
       <c r="J88" t="n">
-        <v>13.4</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="89">
@@ -3592,28 +3608,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1236.35</v>
+        <v>1173.9</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E89" t="n">
-        <v>703.85</v>
+        <v>822.55</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G89" t="n">
-        <v>651.2</v>
+        <v>478.5</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I89" t="n">
-        <v>11.9</v>
+        <v>7.4</v>
       </c>
       <c r="J89" t="n">
-        <v>1.6</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="90">
@@ -3626,28 +3642,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1731.3</v>
+        <v>1643.45</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E90" t="n">
-        <v>1143.95</v>
+        <v>1108.65</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G90" t="n">
-        <v>3189.5</v>
+        <v>2690.15</v>
       </c>
       <c r="H90" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I90" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J90" t="n">
-        <v>-18.5</v>
+        <v>-16.2</v>
       </c>
     </row>
     <row r="91">
@@ -3660,28 +3676,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1828.65</v>
+        <v>2070.15</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E91" t="n">
-        <v>544.85</v>
+        <v>501.3</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G91" t="n">
-        <v>272.4</v>
+        <v>146.4</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I91" t="n">
-        <v>27.4</v>
+        <v>32.8</v>
       </c>
       <c r="J91" t="n">
-        <v>14.9</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="92">
@@ -3694,10 +3710,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3120.9</v>
+        <v>3051.6</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3705,7 +3721,7 @@
         </is>
       </c>
       <c r="F92" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3713,7 +3729,7 @@
         </is>
       </c>
       <c r="H92" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -3736,16 +3752,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>490.15</v>
+        <v>482.8</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E93" t="n">
-        <v>844.15</v>
+        <v>849.9</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3753,10 +3769,10 @@
         </is>
       </c>
       <c r="H93" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I93" t="n">
-        <v>-10.3</v>
+        <v>-10.7</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -3774,28 +3790,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>269.95</v>
+        <v>260.05</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E94" t="n">
-        <v>224.7</v>
+        <v>207.35</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G94" t="n">
-        <v>80.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="H94" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I94" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="J94" t="n">
-        <v>22.7</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="95">
@@ -3808,28 +3824,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1039.45</v>
+        <v>1146.35</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E95" t="n">
-        <v>878.7</v>
+        <v>944.35</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G95" t="n">
-        <v>634.05</v>
+        <v>361.4</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I95" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="J95" t="n">
-        <v>6.7</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="96">
@@ -3842,10 +3858,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2190.05</v>
+        <v>1917.8</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3853,7 +3869,7 @@
         </is>
       </c>
       <c r="F96" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3861,7 +3877,7 @@
         </is>
       </c>
       <c r="H96" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -3884,28 +3900,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1628.7</v>
+        <v>1650.55</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E97" t="n">
-        <v>1854.5</v>
+        <v>1880.95</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G97" t="n">
-        <v>679.35</v>
+        <v>1613.8</v>
       </c>
       <c r="H97" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I97" t="n">
         <v>-2.6</v>
       </c>
       <c r="J97" t="n">
-        <v>22.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="98">
@@ -3918,16 +3934,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>570.3</v>
+        <v>518.65</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E98" t="n">
-        <v>389.65</v>
+        <v>441.5</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3935,10 +3951,10 @@
         </is>
       </c>
       <c r="H98" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I98" t="n">
-        <v>7.9</v>
+        <v>3.3</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -3956,10 +3972,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>884.15</v>
+        <v>841.35</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3967,7 +3983,7 @@
         </is>
       </c>
       <c r="F99" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3975,7 +3991,7 @@
         </is>
       </c>
       <c r="H99" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -3998,16 +4014,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>900.1</v>
+        <v>881.3</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E100" t="n">
-        <v>824.85</v>
+        <v>767.75</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -4015,10 +4031,10 @@
         </is>
       </c>
       <c r="H100" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I100" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -4036,28 +4052,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1100.6</v>
+        <v>1234.75</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E101" t="n">
-        <v>554.45</v>
+        <v>520.9</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G101" t="n">
-        <v>636.75</v>
+        <v>538.45</v>
       </c>
       <c r="H101" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I101" t="n">
-        <v>14.7</v>
+        <v>18.8</v>
       </c>
       <c r="J101" t="n">
-        <v>-2.7</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="102">
@@ -4070,28 +4086,28 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2715.9</v>
+        <v>2559.2</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E102" t="n">
-        <v>3749.1</v>
+        <v>3582.2</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G102" t="n">
-        <v>1887.95</v>
+        <v>1704.35</v>
       </c>
       <c r="H102" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I102" t="n">
-        <v>-6.2</v>
+        <v>-6.5</v>
       </c>
       <c r="J102" t="n">
-        <v>14.7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103">
@@ -4104,28 +4120,28 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>487.05</v>
+        <v>444.55</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E103" t="n">
-        <v>271.15</v>
+        <v>245.2</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G103" t="n">
-        <v>132.55</v>
+        <v>140.85</v>
       </c>
       <c r="H103" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I103" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="J103" t="n">
-        <v>15.4</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="104">
@@ -4138,10 +4154,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2540.5</v>
+        <v>2408.05</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4149,7 +4165,7 @@
         </is>
       </c>
       <c r="F104" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -4157,7 +4173,7 @@
         </is>
       </c>
       <c r="H104" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -4180,28 +4196,28 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>237.1</v>
+        <v>232.05</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E105" t="n">
-        <v>413.75</v>
+        <v>399.8</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G105" t="n">
-        <v>313.8</v>
+        <v>338.55</v>
       </c>
       <c r="H105" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I105" t="n">
-        <v>-10.5</v>
+        <v>-10.3</v>
       </c>
       <c r="J105" t="n">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="106">
@@ -4214,28 +4230,28 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2558.4</v>
+        <v>2586.7</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E106" t="n">
-        <v>1344.5</v>
+        <v>1329.55</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G106" t="n">
-        <v>534.7</v>
+        <v>229.75</v>
       </c>
       <c r="H106" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I106" t="n">
-        <v>13.7</v>
+        <v>14.2</v>
       </c>
       <c r="J106" t="n">
-        <v>20.3</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="107">
@@ -4248,28 +4264,28 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>325.1</v>
+        <v>327.25</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E107" t="n">
-        <v>308.95</v>
+        <v>287.3</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G107" t="n">
-        <v>139.85</v>
+        <v>1057.25</v>
       </c>
       <c r="H107" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="J107" t="n">
-        <v>17.2</v>
+        <v>-22.9</v>
       </c>
     </row>
     <row r="108">
@@ -4282,28 +4298,28 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>40818.6</v>
+        <v>38079.15</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E108" t="n">
-        <v>19349.85</v>
+        <v>16962</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G108" t="n">
-        <v>2714.55</v>
+        <v>2264.3</v>
       </c>
       <c r="H108" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I108" t="n">
-        <v>16.1</v>
+        <v>17.6</v>
       </c>
       <c r="J108" t="n">
-        <v>48.1</v>
+        <v>49.6</v>
       </c>
     </row>
     <row r="109">
@@ -4316,28 +4332,28 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2652.4</v>
+        <v>2673.25</v>
       </c>
       <c r="D109" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E109" t="n">
-        <v>1683.75</v>
+        <v>1811.8</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G109" t="n">
-        <v>837.7</v>
+        <v>2390.9</v>
       </c>
       <c r="H109" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I109" t="n">
-        <v>9.5</v>
+        <v>8.1</v>
       </c>
       <c r="J109" t="n">
-        <v>15</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="110">
@@ -4350,28 +4366,28 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>902.45</v>
+        <v>860.8</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E110" t="n">
-        <v>310.3</v>
+        <v>333.85</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G110" t="n">
-        <v>1182.4</v>
+        <v>817.35</v>
       </c>
       <c r="H110" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I110" t="n">
-        <v>23.8</v>
+        <v>20.9</v>
       </c>
       <c r="J110" t="n">
-        <v>-23.5</v>
+        <v>-16.4</v>
       </c>
     </row>
     <row r="111">
@@ -4384,16 +4400,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1241.35</v>
+        <v>1135.25</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E111" t="n">
-        <v>795.5</v>
+        <v>809.65</v>
       </c>
       <c r="F111" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -4401,10 +4417,10 @@
         </is>
       </c>
       <c r="H111" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I111" t="n">
-        <v>9.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -4422,16 +4438,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>452.4</v>
+        <v>437.25</v>
       </c>
       <c r="D112" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E112" t="n">
-        <v>382.3</v>
+        <v>420.7</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -4439,10 +4455,10 @@
         </is>
       </c>
       <c r="H112" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I112" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
@@ -4460,10 +4476,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>494.75</v>
+        <v>475.3</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4471,7 +4487,7 @@
         </is>
       </c>
       <c r="F113" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -4479,7 +4495,7 @@
         </is>
       </c>
       <c r="H113" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -4502,16 +4518,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>61.15</v>
+        <v>58.75</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E114" t="n">
-        <v>54.85</v>
+        <v>53.25</v>
       </c>
       <c r="F114" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -4519,10 +4535,10 @@
         </is>
       </c>
       <c r="H114" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I114" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -4540,28 +4556,28 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>332.85</v>
+        <v>374.25</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E115" t="n">
-        <v>262.3</v>
+        <v>274.1</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G115" t="n">
-        <v>282.4</v>
+        <v>249.35</v>
       </c>
       <c r="H115" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I115" t="n">
-        <v>4.9</v>
+        <v>6.4</v>
       </c>
       <c r="J115" t="n">
-        <v>-1.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="116">
@@ -4574,10 +4590,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4327.35</v>
+        <v>4751.55</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4585,7 +4601,7 @@
         </is>
       </c>
       <c r="F116" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4593,7 +4609,7 @@
         </is>
       </c>
       <c r="H116" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -4616,28 +4632,28 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>295.75</v>
+        <v>287</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E117" t="n">
-        <v>377.15</v>
+        <v>340.45</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G117" t="n">
-        <v>215.25</v>
+        <v>171.8</v>
       </c>
       <c r="H117" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I117" t="n">
-        <v>-4.7</v>
+        <v>-3.4</v>
       </c>
       <c r="J117" t="n">
-        <v>11.9</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="118">
@@ -4650,16 +4666,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>142.25</v>
+        <v>135.65</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E118" t="n">
-        <v>1608.4</v>
+        <v>1561.05</v>
       </c>
       <c r="F118" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4667,10 +4683,10 @@
         </is>
       </c>
       <c r="H118" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I118" t="n">
-        <v>-38.4</v>
+        <v>-38.7</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -4688,28 +4704,28 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>317.2</v>
+        <v>319.65</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E119" t="n">
-        <v>118.5</v>
+        <v>136.85</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G119" t="n">
-        <v>66.09999999999999</v>
+        <v>90.65000000000001</v>
       </c>
       <c r="H119" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I119" t="n">
-        <v>21.8</v>
+        <v>18.5</v>
       </c>
       <c r="J119" t="n">
-        <v>12.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="120">
@@ -4722,28 +4738,28 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>78</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E120" t="n">
-        <v>389.95</v>
+        <v>385.6</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G120" t="n">
-        <v>281.15</v>
+        <v>306</v>
       </c>
       <c r="H120" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I120" t="n">
-        <v>-27.5</v>
+        <v>-27.1</v>
       </c>
       <c r="J120" t="n">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="121">
@@ -4756,10 +4772,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>642.35</v>
+        <v>651.45</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4767,7 +4783,7 @@
         </is>
       </c>
       <c r="F121" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4775,7 +4791,7 @@
         </is>
       </c>
       <c r="H121" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
@@ -4798,10 +4814,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>32.9</v>
+        <v>30.1</v>
       </c>
       <c r="D122" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4809,7 +4825,7 @@
         </is>
       </c>
       <c r="F122" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4817,7 +4833,7 @@
         </is>
       </c>
       <c r="H122" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -4840,28 +4856,28 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>419.1</v>
+        <v>433.15</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E123" t="n">
-        <v>339.75</v>
+        <v>290.2</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G123" t="n">
-        <v>252.7</v>
+        <v>208</v>
       </c>
       <c r="H123" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I123" t="n">
-        <v>4.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J123" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="124">
@@ -4874,28 +4890,32 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>189.95</v>
+        <v>159.4</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E124" t="n">
-        <v>369.95</v>
+        <v>349.2</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="G124" t="n">
-        <v>207.15</v>
+        <v>43139</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
       <c r="H124" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I124" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="J124" t="n">
-        <v>12.3</v>
+        <v>-14.5</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Nothing</t>
+        </is>
       </c>
     </row>
     <row r="125">
@@ -4908,28 +4928,28 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1226.35</v>
+        <v>1163.8</v>
       </c>
       <c r="D125" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E125" t="n">
-        <v>1623.85</v>
+        <v>1670.85</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G125" t="n">
-        <v>430.75</v>
+        <v>149.85</v>
       </c>
       <c r="H125" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I125" t="n">
-        <v>-5.5</v>
+        <v>-7</v>
       </c>
       <c r="J125" t="n">
-        <v>30.4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126">
@@ -4942,28 +4962,28 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3911.5</v>
+        <v>3824.4</v>
       </c>
       <c r="D126" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E126" t="n">
-        <v>1380.75</v>
+        <v>1240</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G126" t="n">
-        <v>336.7</v>
+        <v>857.6</v>
       </c>
       <c r="H126" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I126" t="n">
-        <v>23.2</v>
+        <v>25.3</v>
       </c>
       <c r="J126" t="n">
-        <v>32.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="127">
@@ -4976,28 +4996,28 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1524</v>
+        <v>1617</v>
       </c>
       <c r="D127" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E127" t="n">
-        <v>1033.55</v>
+        <v>1134.25</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G127" t="n">
-        <v>2349.55</v>
+        <v>2498.65</v>
       </c>
       <c r="H127" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I127" t="n">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="J127" t="n">
-        <v>-15.1</v>
+        <v>-14.6</v>
       </c>
     </row>
     <row r="128">
@@ -5010,16 +5030,16 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2042.75</v>
+        <v>2039.7</v>
       </c>
       <c r="D128" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E128" t="n">
-        <v>1203</v>
+        <v>1255.9</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -5027,10 +5047,10 @@
         </is>
       </c>
       <c r="H128" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I128" t="n">
-        <v>11.2</v>
+        <v>10.2</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
@@ -5048,28 +5068,28 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>836.7</v>
+        <v>876.7</v>
       </c>
       <c r="D129" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E129" t="n">
-        <v>599.8</v>
+        <v>593.35</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G129" t="n">
-        <v>506.9</v>
+        <v>1131.85</v>
       </c>
       <c r="H129" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I129" t="n">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="J129" t="n">
-        <v>3.4</v>
+        <v>-12.1</v>
       </c>
     </row>
     <row r="130">
@@ -5082,28 +5102,28 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2955.95</v>
+        <v>2771.05</v>
       </c>
       <c r="D130" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E130" t="n">
-        <v>1113.7</v>
+        <v>1038.15</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G130" t="n">
-        <v>341.75</v>
+        <v>168.1</v>
       </c>
       <c r="H130" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I130" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="J130" t="n">
-        <v>26.7</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="131">
@@ -5116,28 +5136,28 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>293.55</v>
+        <v>236.35</v>
       </c>
       <c r="D131" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E131" t="n">
-        <v>91.05</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G131" t="n">
-        <v>68.05</v>
+        <v>106.65</v>
       </c>
       <c r="H131" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I131" t="n">
-        <v>26.4</v>
+        <v>23.4</v>
       </c>
       <c r="J131" t="n">
-        <v>6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="132">
@@ -5150,28 +5170,28 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>775.3</v>
+        <v>723.75</v>
       </c>
       <c r="D132" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E132" t="n">
-        <v>265.8</v>
+        <v>304.2</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G132" t="n">
-        <v>827.55</v>
+        <v>1011.4</v>
       </c>
       <c r="H132" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I132" t="n">
-        <v>23.9</v>
+        <v>18.9</v>
       </c>
       <c r="J132" t="n">
-        <v>-20.3</v>
+        <v>-21.4</v>
       </c>
     </row>
     <row r="133">
@@ -5184,28 +5204,28 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>594.65</v>
+        <v>597.05</v>
       </c>
       <c r="D133" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E133" t="n">
-        <v>206.2</v>
+        <v>266.3</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G133" t="n">
-        <v>457.8</v>
+        <v>634.5</v>
       </c>
       <c r="H133" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I133" t="n">
-        <v>23.6</v>
+        <v>17.5</v>
       </c>
       <c r="J133" t="n">
-        <v>-14.7</v>
+        <v>-15.9</v>
       </c>
     </row>
     <row r="134">
@@ -5218,28 +5238,28 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>505.05</v>
+        <v>457.9</v>
       </c>
       <c r="D134" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E134" t="n">
-        <v>1776.6</v>
+        <v>1999.9</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G134" t="n">
-        <v>1320.5</v>
+        <v>229.15</v>
       </c>
       <c r="H134" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I134" t="n">
-        <v>-22.2</v>
+        <v>-25.5</v>
       </c>
       <c r="J134" t="n">
-        <v>6.1</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="135">
@@ -5252,28 +5272,28 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>520.2</v>
+        <v>581.35</v>
       </c>
       <c r="D135" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E135" t="n">
-        <v>801.75</v>
+        <v>720.85</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G135" t="n">
-        <v>137.45</v>
+        <v>108.15</v>
       </c>
       <c r="H135" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I135" t="n">
-        <v>-8.300000000000001</v>
+        <v>-4.2</v>
       </c>
       <c r="J135" t="n">
-        <v>42.3</v>
+        <v>46.1</v>
       </c>
     </row>
     <row r="136">
@@ -5286,28 +5306,28 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1154.75</v>
+        <v>1084.95</v>
       </c>
       <c r="D136" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E136" t="n">
-        <v>725.1</v>
+        <v>607.6</v>
       </c>
       <c r="F136" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G136" t="n">
-        <v>234.85</v>
+        <v>54.95</v>
       </c>
       <c r="H136" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I136" t="n">
-        <v>9.800000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="J136" t="n">
-        <v>25.3</v>
+        <v>61.7</v>
       </c>
     </row>
     <row r="137">
@@ -5320,28 +5340,28 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>436.85</v>
+        <v>417.9</v>
       </c>
       <c r="D137" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E137" t="n">
-        <v>566.7</v>
+        <v>503.25</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G137" t="n">
-        <v>1106.15</v>
+        <v>1070</v>
       </c>
       <c r="H137" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I137" t="n">
-        <v>-5.1</v>
+        <v>-3.6</v>
       </c>
       <c r="J137" t="n">
-        <v>-12.5</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="138">
@@ -5354,28 +5374,28 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1825.05</v>
+        <v>1770.9</v>
       </c>
       <c r="D138" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E138" t="n">
-        <v>999.95</v>
+        <v>1051.75</v>
       </c>
       <c r="F138" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G138" t="n">
-        <v>650.2</v>
+        <v>727.7</v>
       </c>
       <c r="H138" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I138" t="n">
-        <v>12.8</v>
+        <v>11</v>
       </c>
       <c r="J138" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="139">
@@ -5388,16 +5408,16 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>89.84999999999999</v>
+        <v>93.95</v>
       </c>
       <c r="D139" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E139" t="n">
-        <v>172.9</v>
+        <v>163.2</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -5405,10 +5425,10 @@
         </is>
       </c>
       <c r="H139" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I139" t="n">
-        <v>-12.3</v>
+        <v>-10.5</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
@@ -5426,16 +5446,16 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>3723.5</v>
+        <v>3622.05</v>
       </c>
       <c r="D140" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E140" t="n">
-        <v>1073.45</v>
+        <v>1322.55</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -5443,10 +5463,10 @@
         </is>
       </c>
       <c r="H140" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I140" t="n">
-        <v>28.2</v>
+        <v>22.3</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
@@ -5464,28 +5484,28 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>424.45</v>
+        <v>380</v>
       </c>
       <c r="D141" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E141" t="n">
-        <v>565.7</v>
+        <v>514.45</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G141" t="n">
-        <v>295</v>
+        <v>746.3</v>
       </c>
       <c r="H141" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I141" t="n">
-        <v>-5.6</v>
+        <v>-5.9</v>
       </c>
       <c r="J141" t="n">
-        <v>13.9</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="142">
@@ -5498,16 +5518,16 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>4322.1</v>
+        <v>4695.65</v>
       </c>
       <c r="D142" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E142" t="n">
-        <v>1145.4</v>
+        <v>1386.85</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -5515,10 +5535,10 @@
         </is>
       </c>
       <c r="H142" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I142" t="n">
-        <v>30.4</v>
+        <v>27.6</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
@@ -5536,28 +5556,28 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2089.45</v>
+        <v>2147.4</v>
       </c>
       <c r="D143" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E143" t="n">
-        <v>1260.7</v>
+        <v>1347.4</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G143" t="n">
-        <v>1628</v>
+        <v>1433.05</v>
       </c>
       <c r="H143" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I143" t="n">
-        <v>10.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J143" t="n">
-        <v>-5</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="144">
@@ -5570,16 +5590,16 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>373.4</v>
+        <v>338.35</v>
       </c>
       <c r="D144" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E144" t="n">
-        <v>539.6</v>
+        <v>508.7</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -5587,10 +5607,10 @@
         </is>
       </c>
       <c r="H144" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I144" t="n">
-        <v>-7.1</v>
+        <v>-7.8</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
@@ -5608,10 +5628,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>709.5</v>
+        <v>613.15</v>
       </c>
       <c r="D145" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5619,7 +5639,7 @@
         </is>
       </c>
       <c r="F145" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -5627,7 +5647,7 @@
         </is>
       </c>
       <c r="H145" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -5650,28 +5670,28 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3540.45</v>
+        <v>3353.2</v>
       </c>
       <c r="D146" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E146" t="n">
-        <v>534</v>
+        <v>515.8</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G146" t="n">
-        <v>385.55</v>
+        <v>195.2</v>
       </c>
       <c r="H146" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I146" t="n">
-        <v>46</v>
+        <v>45.4</v>
       </c>
       <c r="J146" t="n">
-        <v>6.7</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="147">
@@ -5684,28 +5704,28 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>732.85</v>
+        <v>774.35</v>
       </c>
       <c r="D147" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E147" t="n">
-        <v>883.25</v>
+        <v>812.45</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G147" t="n">
-        <v>604.5</v>
+        <v>1576.4</v>
       </c>
       <c r="H147" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I147" t="n">
-        <v>-3.7</v>
+        <v>-1</v>
       </c>
       <c r="J147" t="n">
-        <v>7.9</v>
+        <v>-12.4</v>
       </c>
     </row>
     <row r="148">
@@ -5718,28 +5738,28 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>88051.2</v>
+        <v>88813.05</v>
       </c>
       <c r="D148" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E148" t="n">
-        <v>72402.85000000001</v>
+        <v>70171.05</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G148" t="n">
-        <v>13361.1</v>
+        <v>5841.8</v>
       </c>
       <c r="H148" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I148" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="J148" t="n">
-        <v>40.2</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="149">
@@ -5752,10 +5772,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1101.05</v>
+        <v>993.75</v>
       </c>
       <c r="D149" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5763,7 +5783,7 @@
         </is>
       </c>
       <c r="F149" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5771,7 +5791,7 @@
         </is>
       </c>
       <c r="H149" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -5794,10 +5814,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1101.05</v>
+        <v>993.75</v>
       </c>
       <c r="D150" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5805,7 +5825,7 @@
         </is>
       </c>
       <c r="F150" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5813,7 +5833,7 @@
         </is>
       </c>
       <c r="H150" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -5836,28 +5856,28 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1262.85</v>
+        <v>1372.2</v>
       </c>
       <c r="D151" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E151" t="n">
-        <v>744.65</v>
+        <v>752.2</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G151" t="n">
-        <v>941.25</v>
+        <v>995.65</v>
       </c>
       <c r="H151" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I151" t="n">
-        <v>11.1</v>
+        <v>12.8</v>
       </c>
       <c r="J151" t="n">
-        <v>-4.6</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="152">
@@ -5870,28 +5890,28 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>506.25</v>
+        <v>494.2</v>
       </c>
       <c r="D152" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E152" t="n">
-        <v>320.7</v>
+        <v>300.1</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G152" t="n">
-        <v>224.75</v>
+        <v>100</v>
       </c>
       <c r="H152" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I152" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="J152" t="n">
-        <v>7.4</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="153">
@@ -5904,28 +5924,28 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>8403.299999999999</v>
+        <v>8801.200000000001</v>
       </c>
       <c r="D153" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E153" t="n">
-        <v>9651.9</v>
+        <v>9030.700000000001</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G153" t="n">
-        <v>1545.45</v>
+        <v>1336</v>
       </c>
       <c r="H153" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I153" t="n">
-        <v>-2.7</v>
+        <v>-0.5</v>
       </c>
       <c r="J153" t="n">
-        <v>44.2</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="154">
@@ -5938,28 +5958,28 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>683.55</v>
+        <v>745.2</v>
       </c>
       <c r="D154" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E154" t="n">
-        <v>597.05</v>
+        <v>519.25</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G154" t="n">
-        <v>251.45</v>
+        <v>197.8</v>
       </c>
       <c r="H154" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I154" t="n">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="J154" t="n">
-        <v>18.9</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="155">
@@ -5972,10 +5992,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>447.6</v>
+        <v>440.5</v>
       </c>
       <c r="D155" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5983,7 +6003,7 @@
         </is>
       </c>
       <c r="F155" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5991,7 +6011,7 @@
         </is>
       </c>
       <c r="H155" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -6014,10 +6034,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>58.15</v>
+        <v>52.45</v>
       </c>
       <c r="D156" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6025,7 +6045,7 @@
         </is>
       </c>
       <c r="F156" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -6033,7 +6053,7 @@
         </is>
       </c>
       <c r="H156" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -6056,28 +6076,28 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1969.4</v>
+        <v>2140.15</v>
       </c>
       <c r="D157" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E157" t="n">
-        <v>738.25</v>
+        <v>872.05</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G157" t="n">
-        <v>393.5</v>
+        <v>726.55</v>
       </c>
       <c r="H157" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I157" t="n">
-        <v>21.7</v>
+        <v>19.7</v>
       </c>
       <c r="J157" t="n">
-        <v>13.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="158">
@@ -6090,28 +6110,32 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1091.7</v>
+        <v>1017.7</v>
       </c>
       <c r="D158" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E158" t="n">
-        <v>470.3</v>
+        <v>430.7</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="G158" t="n">
-        <v>228.3</v>
+        <v>43139</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
       <c r="H158" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I158" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J158" t="n">
-        <v>15.6</v>
+        <v>18.8</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Nothing</t>
+        </is>
       </c>
     </row>
     <row r="159">
@@ -6124,28 +6148,28 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>555.1</v>
+        <v>529.5</v>
       </c>
       <c r="D159" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E159" t="n">
-        <v>986.3</v>
+        <v>829.6</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G159" t="n">
-        <v>462.5</v>
+        <v>124.2</v>
       </c>
       <c r="H159" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I159" t="n">
-        <v>-10.9</v>
+        <v>-8.6</v>
       </c>
       <c r="J159" t="n">
-        <v>16.4</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="160">
@@ -6158,28 +6182,28 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>39.95</v>
+        <v>40.75</v>
       </c>
       <c r="D160" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E160" t="n">
-        <v>32.2</v>
+        <v>28.7</v>
       </c>
       <c r="F160" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G160" t="n">
-        <v>25.15</v>
+        <v>32.15</v>
       </c>
       <c r="H160" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I160" t="n">
-        <v>4.4</v>
+        <v>7.3</v>
       </c>
       <c r="J160" t="n">
-        <v>5.1</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="161">
@@ -6192,28 +6216,28 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D161" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E161" t="n">
-        <v>176.55</v>
+        <v>163.7</v>
       </c>
       <c r="F161" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G161" t="n">
-        <v>158.9</v>
+        <v>201.55</v>
       </c>
       <c r="H161" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I161" t="n">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="J161" t="n">
-        <v>2.1</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="162">
@@ -6226,28 +6250,28 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>83.7</v>
+        <v>78.2</v>
       </c>
       <c r="D162" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E162" t="n">
-        <v>85.7</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="F162" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G162" t="n">
-        <v>50.25</v>
+        <v>365.2</v>
       </c>
       <c r="H162" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I162" t="n">
-        <v>-0.5</v>
+        <v>1.8</v>
       </c>
       <c r="J162" t="n">
-        <v>11.3</v>
+        <v>-27.8</v>
       </c>
     </row>
     <row r="163">
@@ -6260,28 +6284,28 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>4122.4</v>
+        <v>4202.25</v>
       </c>
       <c r="D163" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E163" t="n">
-        <v>827</v>
+        <v>809.1</v>
       </c>
       <c r="F163" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G163" t="n">
-        <v>296.15</v>
+        <v>315.4</v>
       </c>
       <c r="H163" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I163" t="n">
-        <v>37.9</v>
+        <v>39</v>
       </c>
       <c r="J163" t="n">
-        <v>22.8</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="164">
@@ -6294,28 +6318,28 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>19561.55</v>
+        <v>19000.3</v>
       </c>
       <c r="D164" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E164" t="n">
-        <v>7863.2</v>
+        <v>6986</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G164" t="n">
-        <v>4875.85</v>
+        <v>2719.25</v>
       </c>
       <c r="H164" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I164" t="n">
-        <v>20</v>
+        <v>22.2</v>
       </c>
       <c r="J164" t="n">
-        <v>10</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="165">
@@ -6328,10 +6352,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>19561.55</v>
+        <v>19000.3</v>
       </c>
       <c r="D165" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6339,7 +6363,7 @@
         </is>
       </c>
       <c r="F165" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -6347,7 +6371,7 @@
         </is>
       </c>
       <c r="H165" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -6370,28 +6394,32 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>871.7</v>
+        <v>845.1</v>
       </c>
       <c r="D166" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E166" t="n">
-        <v>480.2</v>
+        <v>476.15</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="G166" t="n">
-        <v>299.95</v>
+        <v>43139</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
       <c r="H166" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I166" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J166" t="n">
-        <v>9.9</v>
+        <v>12.2</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Nothing</t>
+        </is>
       </c>
     </row>
     <row r="167">
@@ -6404,28 +6432,28 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>150.45</v>
+        <v>146.2</v>
       </c>
       <c r="D167" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E167" t="n">
-        <v>192.35</v>
+        <v>188.7</v>
       </c>
       <c r="F167" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G167" t="n">
-        <v>284.8</v>
+        <v>1088.3</v>
       </c>
       <c r="H167" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I167" t="n">
-        <v>-4.8</v>
+        <v>-5</v>
       </c>
       <c r="J167" t="n">
-        <v>-7.5</v>
+        <v>-29.6</v>
       </c>
     </row>
     <row r="168">
@@ -6438,28 +6466,28 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>214.8</v>
+        <v>229.1</v>
       </c>
       <c r="D168" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E168" t="n">
-        <v>372.95</v>
+        <v>362.1</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G168" t="n">
-        <v>481.9</v>
+        <v>1147.45</v>
       </c>
       <c r="H168" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I168" t="n">
-        <v>-10.4</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="J168" t="n">
-        <v>-5</v>
+        <v>-20.6</v>
       </c>
     </row>
     <row r="169">
@@ -6472,10 +6500,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>532.1</v>
+        <v>705.95</v>
       </c>
       <c r="D169" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6483,7 +6511,7 @@
         </is>
       </c>
       <c r="F169" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -6491,7 +6519,7 @@
         </is>
       </c>
       <c r="H169" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -6514,28 +6542,28 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>3024</v>
+        <v>3190.9</v>
       </c>
       <c r="D170" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E170" t="n">
-        <v>4066.75</v>
+        <v>4092.8</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G170" t="n">
-        <v>3293.3</v>
+        <v>2215.55</v>
       </c>
       <c r="H170" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I170" t="n">
-        <v>-5.8</v>
+        <v>-4.9</v>
       </c>
       <c r="J170" t="n">
-        <v>4.3</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="171">
@@ -6548,10 +6576,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>452.15</v>
+        <v>510.3</v>
       </c>
       <c r="D171" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6559,7 +6587,7 @@
         </is>
       </c>
       <c r="F171" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -6567,7 +6595,7 @@
         </is>
       </c>
       <c r="H171" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -6590,28 +6618,32 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3411.05</v>
+        <v>3194.2</v>
       </c>
       <c r="D172" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E172" t="n">
-        <v>958.65</v>
+        <v>823.05</v>
       </c>
       <c r="F172" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="G172" t="n">
-        <v>627.6</v>
+        <v>43139</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
       <c r="H172" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I172" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J172" t="n">
-        <v>8.800000000000001</v>
+        <v>31.2</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Nothing</t>
+        </is>
       </c>
     </row>
     <row r="173">
@@ -6624,28 +6656,28 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>41921.05</v>
+        <v>37960.15</v>
       </c>
       <c r="D173" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E173" t="n">
-        <v>25212.95</v>
+        <v>20702.75</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G173" t="n">
-        <v>3411.3</v>
+        <v>816.95</v>
       </c>
       <c r="H173" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I173" t="n">
-        <v>10.7</v>
+        <v>12.9</v>
       </c>
       <c r="J173" t="n">
-        <v>49.2</v>
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="174">
@@ -6658,10 +6690,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>41921.05</v>
+        <v>37960.15</v>
       </c>
       <c r="D174" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6669,7 +6701,7 @@
         </is>
       </c>
       <c r="F174" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -6677,7 +6709,7 @@
         </is>
       </c>
       <c r="H174" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I174" t="inlineStr">
         <is>
@@ -6700,28 +6732,32 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>4027.95</v>
+        <v>4824.85</v>
       </c>
       <c r="D175" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E175" t="n">
-        <v>711.8</v>
+        <v>794.1</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="G175" t="n">
-        <v>535.2</v>
+        <v>43139</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
       <c r="H175" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I175" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="J175" t="n">
-        <v>5.9</v>
+        <v>43.5</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>Nothing</t>
+        </is>
       </c>
     </row>
     <row r="176">
@@ -6734,28 +6770,28 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>216.6</v>
+        <v>223.65</v>
       </c>
       <c r="D176" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E176" t="n">
-        <v>255.9</v>
+        <v>248.9</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G176" t="n">
-        <v>163.15</v>
+        <v>71.95</v>
       </c>
       <c r="H176" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I176" t="n">
-        <v>-3.3</v>
+        <v>-2.1</v>
       </c>
       <c r="J176" t="n">
-        <v>9.4</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="177">
@@ -6768,28 +6804,28 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>4406.95</v>
+        <v>3861.4</v>
       </c>
       <c r="D177" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E177" t="n">
-        <v>2046.65</v>
+        <v>2267.95</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G177" t="n">
-        <v>1167.75</v>
+        <v>926.65</v>
       </c>
       <c r="H177" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I177" t="n">
-        <v>16.6</v>
+        <v>11.2</v>
       </c>
       <c r="J177" t="n">
-        <v>11.9</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="178">
@@ -6802,28 +6838,28 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1425.85</v>
+        <v>1365.15</v>
       </c>
       <c r="D178" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E178" t="n">
-        <v>633.65</v>
+        <v>619.9</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G178" t="n">
-        <v>260.1</v>
+        <v>195.85</v>
       </c>
       <c r="H178" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I178" t="n">
-        <v>17.6</v>
+        <v>17.1</v>
       </c>
       <c r="J178" t="n">
-        <v>19.5</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="179">
@@ -6836,28 +6872,28 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>2530</v>
+        <v>2327.65</v>
       </c>
       <c r="D179" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E179" t="n">
-        <v>900</v>
+        <v>884.9</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G179" t="n">
-        <v>231.75</v>
+        <v>191.05</v>
       </c>
       <c r="H179" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I179" t="n">
-        <v>23</v>
+        <v>21.3</v>
       </c>
       <c r="J179" t="n">
-        <v>31.2</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="180">
@@ -6870,10 +6906,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2580</v>
+        <v>2995.7</v>
       </c>
       <c r="D180" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -6881,7 +6917,7 @@
         </is>
       </c>
       <c r="F180" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -6889,7 +6925,7 @@
         </is>
       </c>
       <c r="H180" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I180" t="inlineStr">
         <is>
@@ -6912,28 +6948,28 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>303.45</v>
+        <v>302.3</v>
       </c>
       <c r="D181" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E181" t="n">
-        <v>160.45</v>
+        <v>159.15</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G181" t="n">
-        <v>93.34999999999999</v>
+        <v>214</v>
       </c>
       <c r="H181" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I181" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="J181" t="n">
-        <v>11.4</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="182">
@@ -6946,28 +6982,28 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>149.7</v>
+        <v>145.35</v>
       </c>
       <c r="D182" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E182" t="n">
-        <v>123.8</v>
+        <v>110.15</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G182" t="n">
-        <v>211.8</v>
+        <v>244.05</v>
       </c>
       <c r="H182" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I182" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="J182" t="n">
-        <v>-10.2</v>
+        <v>-14.7</v>
       </c>
     </row>
     <row r="183">
@@ -6980,28 +7016,28 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>215.05</v>
+        <v>212.85</v>
       </c>
       <c r="D183" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E183" t="n">
-        <v>200.2</v>
+        <v>193.2</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G183" t="n">
-        <v>114.95</v>
+        <v>104.9</v>
       </c>
       <c r="H183" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I183" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="J183" t="n">
-        <v>11.7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184">
@@ -7014,28 +7050,32 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>469.35</v>
+        <v>405.35</v>
       </c>
       <c r="D184" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E184" t="n">
-        <v>315.65</v>
+        <v>295.7</v>
       </c>
       <c r="F184" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="G184" t="n">
-        <v>184.65</v>
+        <v>43139</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
       <c r="H184" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I184" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="J184" t="n">
-        <v>11.3</v>
+        <v>6.5</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Nothing</t>
+        </is>
       </c>
     </row>
     <row r="185">
@@ -7048,28 +7088,28 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>14273.3</v>
+        <v>13737.6</v>
       </c>
       <c r="D185" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E185" t="n">
-        <v>9475</v>
+        <v>9273.65</v>
       </c>
       <c r="F185" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G185" t="n">
-        <v>2704.75</v>
+        <v>1921.45</v>
       </c>
       <c r="H185" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I185" t="n">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J185" t="n">
-        <v>28.5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186">
@@ -7082,28 +7122,28 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>57.15</v>
+        <v>51</v>
       </c>
       <c r="D186" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E186" t="n">
-        <v>169.75</v>
+        <v>159.35</v>
       </c>
       <c r="F186" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G186" t="n">
-        <v>908.1</v>
+        <v>878.6</v>
       </c>
       <c r="H186" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I186" t="n">
-        <v>-19.6</v>
+        <v>-20.4</v>
       </c>
       <c r="J186" t="n">
-        <v>-28.5</v>
+        <v>-28.9</v>
       </c>
     </row>
     <row r="187">
@@ -7116,28 +7156,28 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>120.4</v>
+        <v>117.3</v>
       </c>
       <c r="D187" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E187" t="n">
-        <v>158.4</v>
+        <v>150.55</v>
       </c>
       <c r="F187" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G187" t="n">
-        <v>266.05</v>
+        <v>219.9</v>
       </c>
       <c r="H187" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I187" t="n">
-        <v>-5.3</v>
+        <v>-4.9</v>
       </c>
       <c r="J187" t="n">
-        <v>-9.9</v>
+        <v>-7.3</v>
       </c>
     </row>
     <row r="188">
@@ -7150,28 +7190,28 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>714.65</v>
+        <v>862.35</v>
       </c>
       <c r="D188" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E188" t="n">
-        <v>804.7</v>
+        <v>810.75</v>
       </c>
       <c r="F188" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G188" t="n">
-        <v>138.8</v>
+        <v>102.65</v>
       </c>
       <c r="H188" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I188" t="n">
-        <v>-2.3</v>
+        <v>1.2</v>
       </c>
       <c r="J188" t="n">
-        <v>42.1</v>
+        <v>51.2</v>
       </c>
     </row>
     <row r="189">
@@ -7184,28 +7224,32 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>907.15</v>
+        <v>780.25</v>
       </c>
       <c r="D189" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E189" t="n">
-        <v>686.85</v>
+        <v>608.75</v>
       </c>
       <c r="F189" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="G189" t="n">
-        <v>808.1</v>
+        <v>43139</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
       <c r="H189" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I189" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J189" t="n">
-        <v>-3.2</v>
+        <v>5.1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Nothing</t>
+        </is>
       </c>
     </row>
     <row r="190">
@@ -7218,28 +7262,28 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>2575.9</v>
+        <v>2356.05</v>
       </c>
       <c r="D190" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E190" t="n">
-        <v>909.75</v>
+        <v>904.55</v>
       </c>
       <c r="F190" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G190" t="n">
-        <v>861.85</v>
+        <v>1010</v>
       </c>
       <c r="H190" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I190" t="n">
-        <v>23.1</v>
+        <v>21.1</v>
       </c>
       <c r="J190" t="n">
-        <v>1.1</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="191">
@@ -7252,10 +7296,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>794.85</v>
+        <v>757.25</v>
       </c>
       <c r="D191" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -7263,7 +7307,7 @@
         </is>
       </c>
       <c r="F191" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -7271,7 +7315,7 @@
         </is>
       </c>
       <c r="H191" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I191" t="inlineStr">
         <is>
@@ -7294,16 +7338,16 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1240.05</v>
+        <v>1180.45</v>
       </c>
       <c r="D192" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E192" t="n">
-        <v>699.5</v>
+        <v>715</v>
       </c>
       <c r="F192" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -7311,10 +7355,10 @@
         </is>
       </c>
       <c r="H192" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I192" t="n">
-        <v>12.1</v>
+        <v>10.5</v>
       </c>
       <c r="J192" t="inlineStr">
         <is>
@@ -7332,28 +7376,28 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>4544.45</v>
+        <v>4467.7</v>
       </c>
       <c r="D193" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E193" t="n">
-        <v>1898.25</v>
+        <v>1723.65</v>
       </c>
       <c r="F193" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G193" t="n">
-        <v>621.85</v>
+        <v>327.85</v>
       </c>
       <c r="H193" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I193" t="n">
-        <v>19.1</v>
+        <v>21</v>
       </c>
       <c r="J193" t="n">
-        <v>25</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="194">
@@ -7366,28 +7410,28 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2292.45</v>
+        <v>2218.35</v>
       </c>
       <c r="D194" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E194" t="n">
-        <v>1967.2</v>
+        <v>1843.2</v>
       </c>
       <c r="F194" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G194" t="n">
-        <v>206.45</v>
+        <v>183.5</v>
       </c>
       <c r="H194" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I194" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="J194" t="n">
-        <v>57</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="195">
@@ -7400,28 +7444,28 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>75.7</v>
+        <v>79.3</v>
       </c>
       <c r="D195" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E195" t="n">
-        <v>379.1</v>
+        <v>364</v>
       </c>
       <c r="F195" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G195" t="n">
-        <v>199.9</v>
+        <v>127.45</v>
       </c>
       <c r="H195" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I195" t="n">
-        <v>-27.5</v>
+        <v>-26.3</v>
       </c>
       <c r="J195" t="n">
-        <v>13.7</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="196">
@@ -7434,28 +7478,28 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>5835.65</v>
+        <v>5315.6</v>
       </c>
       <c r="D196" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E196" t="n">
-        <v>4699.2</v>
+        <v>4720.45</v>
       </c>
       <c r="F196" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G196" t="n">
-        <v>2367.55</v>
+        <v>1653.15</v>
       </c>
       <c r="H196" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I196" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="J196" t="n">
-        <v>14.7</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="197">
@@ -7468,28 +7512,28 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>2720.7</v>
+        <v>2722.55</v>
       </c>
       <c r="D197" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E197" t="n">
-        <v>5841.05</v>
+        <v>5403.1</v>
       </c>
       <c r="F197" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G197" t="n">
-        <v>1691.35</v>
+        <v>541.1</v>
       </c>
       <c r="H197" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I197" t="n">
-        <v>-14.2</v>
+        <v>-12.8</v>
       </c>
       <c r="J197" t="n">
-        <v>28.1</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="198">
@@ -7502,28 +7546,28 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>23454.7</v>
+        <v>23199.8</v>
       </c>
       <c r="D198" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E198" t="n">
-        <v>17929.05</v>
+        <v>17005.05</v>
       </c>
       <c r="F198" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G198" t="n">
-        <v>4596.4</v>
+        <v>1996.8</v>
       </c>
       <c r="H198" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I198" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="J198" t="n">
-        <v>31.3</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="199">
@@ -7536,36 +7580,28 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>23454.7</v>
+        <v>1315.05</v>
       </c>
       <c r="D199" s="2" t="n">
-        <v>44928</v>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+        <v>44966</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1337.6</v>
       </c>
       <c r="F199" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+        <v>43139</v>
+      </c>
+      <c r="G199" t="n">
+        <v>474</v>
       </c>
       <c r="H199" s="2" t="n">
-        <v>41278</v>
-      </c>
-      <c r="I199" t="inlineStr">
-        <is>
-          <t>Nothing</t>
-        </is>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Nothing</t>
-        </is>
+        <v>40221</v>
+      </c>
+      <c r="I199" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="J199" t="n">
+        <v>23.1</v>
       </c>
     </row>
     <row r="200">
@@ -7578,28 +7614,28 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>2828.35</v>
+        <v>3103.7</v>
       </c>
       <c r="D200" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E200" t="n">
-        <v>1238.2</v>
+        <v>1226</v>
       </c>
       <c r="F200" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G200" t="n">
-        <v>691.9</v>
+        <v>643.95</v>
       </c>
       <c r="H200" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I200" t="n">
-        <v>18</v>
+        <v>20.4</v>
       </c>
       <c r="J200" t="n">
-        <v>12.3</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="201">
@@ -7612,28 +7648,28 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>4434.15</v>
+        <v>3860.05</v>
       </c>
       <c r="D201" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E201" t="n">
-        <v>1186.2</v>
+        <v>1050.05</v>
       </c>
       <c r="F201" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G201" t="n">
-        <v>981.75</v>
+        <v>456</v>
       </c>
       <c r="H201" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I201" t="n">
-        <v>30.2</v>
+        <v>29.7</v>
       </c>
       <c r="J201" t="n">
-        <v>3.9</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="202">
@@ -7646,10 +7682,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>419.2</v>
+        <v>464.9</v>
       </c>
       <c r="D202" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -7657,7 +7693,7 @@
         </is>
       </c>
       <c r="F202" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -7665,7 +7701,7 @@
         </is>
       </c>
       <c r="H202" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
@@ -7688,10 +7724,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>584.3</v>
+        <v>540.85</v>
       </c>
       <c r="D203" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -7699,7 +7735,7 @@
         </is>
       </c>
       <c r="F203" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -7707,7 +7743,7 @@
         </is>
       </c>
       <c r="H203" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I203" t="inlineStr">
         <is>
@@ -7730,28 +7766,28 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>612.2</v>
+        <v>550.8</v>
       </c>
       <c r="D204" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E204" t="n">
-        <v>307.1</v>
+        <v>301.4</v>
       </c>
       <c r="F204" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G204" t="n">
-        <v>2486.7</v>
+        <v>1895</v>
       </c>
       <c r="H204" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I204" t="n">
-        <v>14.8</v>
+        <v>12.8</v>
       </c>
       <c r="J204" t="n">
-        <v>-34.2</v>
+        <v>-30.8</v>
       </c>
     </row>
     <row r="205">
@@ -7764,28 +7800,28 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>88.95</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="D205" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E205" t="n">
-        <v>92.7</v>
+        <v>86</v>
       </c>
       <c r="F205" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G205" t="n">
-        <v>95.3</v>
+        <v>202.45</v>
       </c>
       <c r="H205" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I205" t="n">
-        <v>-0.8</v>
+        <v>-0.2</v>
       </c>
       <c r="J205" t="n">
-        <v>-0.6</v>
+        <v>-15.7</v>
       </c>
     </row>
     <row r="206">
@@ -7798,10 +7834,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>492.5</v>
+        <v>445.65</v>
       </c>
       <c r="D206" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -7809,7 +7845,7 @@
         </is>
       </c>
       <c r="F206" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -7817,7 +7853,7 @@
         </is>
       </c>
       <c r="H206" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
@@ -7840,28 +7876,28 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>997</v>
+        <v>1006.8</v>
       </c>
       <c r="D207" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E207" t="n">
-        <v>574.05</v>
+        <v>584.1</v>
       </c>
       <c r="F207" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G207" t="n">
-        <v>735.15</v>
+        <v>1528.1</v>
       </c>
       <c r="H207" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I207" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="J207" t="n">
-        <v>-4.8</v>
+        <v>-17.5</v>
       </c>
     </row>
     <row r="208">
@@ -7874,28 +7910,28 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>488.45</v>
+        <v>459</v>
       </c>
       <c r="D208" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E208" t="n">
-        <v>998</v>
+        <v>1006.55</v>
       </c>
       <c r="F208" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G208" t="n">
-        <v>439.15</v>
+        <v>373.25</v>
       </c>
       <c r="H208" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I208" t="n">
-        <v>-13.3</v>
+        <v>-14.5</v>
       </c>
       <c r="J208" t="n">
-        <v>17.8</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="209">
@@ -7908,28 +7944,36 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>2298.45</v>
+        <v>2321</v>
       </c>
       <c r="D209" s="2" t="n">
-        <v>44928</v>
-      </c>
-      <c r="E209" t="n">
-        <v>1853.95</v>
+        <v>44966</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
       <c r="F209" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="G209" t="n">
-        <v>533</v>
+        <v>43139</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>No Data</t>
+        </is>
       </c>
       <c r="H209" s="2" t="n">
-        <v>41278</v>
-      </c>
-      <c r="I209" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J209" t="n">
-        <v>28.3</v>
+        <v>40221</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Nothing</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>Nothing</t>
+        </is>
       </c>
     </row>
     <row r="210">
@@ -7942,28 +7986,28 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>970</v>
+        <v>980.75</v>
       </c>
       <c r="D210" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E210" t="n">
-        <v>580.65</v>
+        <v>524.55</v>
       </c>
       <c r="F210" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G210" t="n">
-        <v>51.35</v>
+        <v>54.25</v>
       </c>
       <c r="H210" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I210" t="n">
-        <v>10.8</v>
+        <v>13.3</v>
       </c>
       <c r="J210" t="n">
-        <v>62.4</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="211">
@@ -7976,28 +8020,28 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>2407.25</v>
+        <v>2655.45</v>
       </c>
       <c r="D211" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E211" t="n">
-        <v>1305.45</v>
+        <v>1187.2</v>
       </c>
       <c r="F211" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G211" t="n">
-        <v>298.3</v>
+        <v>459.05</v>
       </c>
       <c r="H211" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I211" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="J211" t="n">
-        <v>34.3</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="212">
@@ -8010,16 +8054,16 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>579.75</v>
+        <v>571.1</v>
       </c>
       <c r="D212" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E212" t="n">
-        <v>547.85</v>
+        <v>599.55</v>
       </c>
       <c r="F212" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
@@ -8027,10 +8071,10 @@
         </is>
       </c>
       <c r="H212" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I212" t="n">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
@@ -8048,28 +8092,28 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1073.05</v>
+        <v>1049.8</v>
       </c>
       <c r="D213" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E213" t="n">
-        <v>766.45</v>
+        <v>666.2</v>
       </c>
       <c r="F213" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G213" t="n">
-        <v>45.25</v>
+        <v>68.3</v>
       </c>
       <c r="H213" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I213" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="J213" t="n">
-        <v>76.09999999999999</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="214">
@@ -8082,28 +8126,28 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>941.35</v>
+        <v>1012.55</v>
       </c>
       <c r="D214" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E214" t="n">
-        <v>726</v>
+        <v>708.15</v>
       </c>
       <c r="F214" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G214" t="n">
-        <v>364.7</v>
+        <v>283.3</v>
       </c>
       <c r="H214" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I214" t="n">
-        <v>5.3</v>
+        <v>7.4</v>
       </c>
       <c r="J214" t="n">
-        <v>14.8</v>
+        <v>20.1</v>
       </c>
     </row>
     <row r="215">
@@ -8116,28 +8160,28 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1317.55</v>
+        <v>1234.5</v>
       </c>
       <c r="D215" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E215" t="n">
-        <v>677.95</v>
+        <v>618.95</v>
       </c>
       <c r="F215" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G215" t="n">
-        <v>252.55</v>
+        <v>296.45</v>
       </c>
       <c r="H215" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I215" t="n">
-        <v>14.2</v>
+        <v>14.8</v>
       </c>
       <c r="J215" t="n">
-        <v>21.8</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="216">
@@ -8150,28 +8194,28 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3261.45</v>
+        <v>3540.85</v>
       </c>
       <c r="D216" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E216" t="n">
-        <v>2645.6</v>
+        <v>2974.2</v>
       </c>
       <c r="F216" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G216" t="n">
-        <v>1299.2</v>
+        <v>746.15</v>
       </c>
       <c r="H216" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I216" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="J216" t="n">
-        <v>15.3</v>
+        <v>31.9</v>
       </c>
     </row>
     <row r="217">
@@ -8184,28 +8228,28 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>762.3</v>
+        <v>721.95</v>
       </c>
       <c r="D217" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E217" t="n">
-        <v>312.9</v>
+        <v>280.45</v>
       </c>
       <c r="F217" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G217" t="n">
-        <v>164.15</v>
+        <v>950.35</v>
       </c>
       <c r="H217" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I217" t="n">
-        <v>19.5</v>
+        <v>20.8</v>
       </c>
       <c r="J217" t="n">
-        <v>13.8</v>
+        <v>-21.7</v>
       </c>
     </row>
     <row r="218">
@@ -8218,28 +8262,28 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>6300.4</v>
+        <v>6685.15</v>
       </c>
       <c r="D218" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E218" t="n">
-        <v>964.05</v>
+        <v>995.9</v>
       </c>
       <c r="F218" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G218" t="n">
-        <v>241.45</v>
+        <v>273.35</v>
       </c>
       <c r="H218" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I218" t="n">
-        <v>45.6</v>
+        <v>46.3</v>
       </c>
       <c r="J218" t="n">
-        <v>31.9</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="219">
@@ -8252,28 +8296,28 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>394.8</v>
+        <v>436.75</v>
       </c>
       <c r="D219" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E219" t="n">
-        <v>424.45</v>
+        <v>374.85</v>
       </c>
       <c r="F219" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G219" t="n">
-        <v>315.4</v>
+        <v>683.15</v>
       </c>
       <c r="H219" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I219" t="n">
-        <v>-1.4</v>
+        <v>3.1</v>
       </c>
       <c r="J219" t="n">
-        <v>6.1</v>
+        <v>-11.3</v>
       </c>
     </row>
     <row r="220">
@@ -8286,28 +8330,28 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>211.85</v>
+        <v>205.5</v>
       </c>
       <c r="D220" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E220" t="n">
-        <v>97.15000000000001</v>
+        <v>85.05</v>
       </c>
       <c r="F220" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G220" t="n">
-        <v>110.2</v>
+        <v>1239.65</v>
       </c>
       <c r="H220" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I220" t="n">
-        <v>16.9</v>
+        <v>19.3</v>
       </c>
       <c r="J220" t="n">
-        <v>-2.5</v>
+        <v>-41.5</v>
       </c>
     </row>
     <row r="221">
@@ -8320,28 +8364,28 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>119.25</v>
+        <v>111.25</v>
       </c>
       <c r="D221" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E221" t="n">
-        <v>722.2</v>
+        <v>671.45</v>
       </c>
       <c r="F221" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G221" t="n">
-        <v>433.5</v>
+        <v>539.9</v>
       </c>
       <c r="H221" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I221" t="n">
         <v>-30.2</v>
       </c>
       <c r="J221" t="n">
-        <v>10.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="222">
@@ -8354,36 +8398,28 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>91.8</v>
+        <v>69.25</v>
       </c>
       <c r="D222" s="2" t="n">
-        <v>44928</v>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+        <v>44966</v>
+      </c>
+      <c r="E222" t="n">
+        <v>6.6</v>
       </c>
       <c r="F222" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+        <v>43139</v>
+      </c>
+      <c r="G222" t="n">
+        <v>23.75</v>
       </c>
       <c r="H222" s="2" t="n">
-        <v>41278</v>
-      </c>
-      <c r="I222" t="inlineStr">
-        <is>
-          <t>Nothing</t>
-        </is>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>Nothing</t>
-        </is>
+        <v>40221</v>
+      </c>
+      <c r="I222" t="n">
+        <v>60</v>
+      </c>
+      <c r="J222" t="n">
+        <v>-22.6</v>
       </c>
     </row>
     <row r="223">
@@ -8396,28 +8432,28 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>1009.5</v>
+        <v>1016</v>
       </c>
       <c r="D223" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E223" t="n">
-        <v>503.1</v>
+        <v>608.25</v>
       </c>
       <c r="F223" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G223" t="n">
-        <v>942.5</v>
+        <v>947.95</v>
       </c>
       <c r="H223" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I223" t="n">
-        <v>14.9</v>
+        <v>10.8</v>
       </c>
       <c r="J223" t="n">
-        <v>-11.8</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="224">
@@ -8430,16 +8466,16 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>130.1</v>
+        <v>106.9</v>
       </c>
       <c r="D224" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E224" t="n">
-        <v>610.6</v>
+        <v>691.5</v>
       </c>
       <c r="F224" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -8447,10 +8483,10 @@
         </is>
       </c>
       <c r="H224" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I224" t="n">
-        <v>-26.6</v>
+        <v>-31.2</v>
       </c>
       <c r="J224" t="inlineStr">
         <is>
@@ -8468,28 +8504,28 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>706.15</v>
+        <v>724.05</v>
       </c>
       <c r="D225" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E225" t="n">
-        <v>780.25</v>
+        <v>725.15</v>
       </c>
       <c r="F225" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G225" t="n">
-        <v>240.85</v>
+        <v>113.8</v>
       </c>
       <c r="H225" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I225" t="n">
-        <v>-2</v>
+        <v>-0</v>
       </c>
       <c r="J225" t="n">
-        <v>26.5</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="226">
@@ -8502,28 +8538,28 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>1961.3</v>
+        <v>2118.8</v>
       </c>
       <c r="D226" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E226" t="n">
-        <v>1212.85</v>
+        <v>1197.8</v>
       </c>
       <c r="F226" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G226" t="n">
-        <v>616.9</v>
+        <v>622.2</v>
       </c>
       <c r="H226" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I226" t="n">
-        <v>10.1</v>
+        <v>12.1</v>
       </c>
       <c r="J226" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227">
@@ -8536,28 +8572,28 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>2565.75</v>
+        <v>2462.55</v>
       </c>
       <c r="D227" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E227" t="n">
-        <v>852.45</v>
+        <v>800.75</v>
       </c>
       <c r="F227" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G227" t="n">
-        <v>285.45</v>
+        <v>1717</v>
       </c>
       <c r="H227" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I227" t="n">
-        <v>24.7</v>
+        <v>25.2</v>
       </c>
       <c r="J227" t="n">
-        <v>24.5</v>
+        <v>-14.1</v>
       </c>
     </row>
     <row r="228">
@@ -8570,28 +8606,28 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1548.8</v>
+        <v>1540.2</v>
       </c>
       <c r="D228" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E228" t="n">
-        <v>1390.45</v>
+        <v>1380.85</v>
       </c>
       <c r="F228" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G228" t="n">
-        <v>726.9</v>
+        <v>453.1</v>
       </c>
       <c r="H228" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I228" t="n">
         <v>2.2</v>
       </c>
       <c r="J228" t="n">
-        <v>13.9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="229">
@@ -8604,28 +8640,28 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>500.6</v>
+        <v>449.45</v>
       </c>
       <c r="D229" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E229" t="n">
-        <v>284.95</v>
+        <v>257.5</v>
       </c>
       <c r="F229" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G229" t="n">
-        <v>188.7</v>
+        <v>295.95</v>
       </c>
       <c r="H229" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I229" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="J229" t="n">
-        <v>8.6</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="230">
@@ -8638,28 +8674,28 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1342.15</v>
+        <v>1341.9</v>
       </c>
       <c r="D230" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E230" t="n">
-        <v>331.5</v>
+        <v>315.85</v>
       </c>
       <c r="F230" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G230" t="n">
-        <v>1318.8</v>
+        <v>760.85</v>
       </c>
       <c r="H230" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I230" t="n">
-        <v>32.3</v>
+        <v>33.6</v>
       </c>
       <c r="J230" t="n">
-        <v>-24.1</v>
+        <v>-16.1</v>
       </c>
     </row>
     <row r="231">
@@ -8672,28 +8708,28 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>34.4</v>
+        <v>32.05</v>
       </c>
       <c r="D231" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E231" t="n">
-        <v>89.5</v>
+        <v>73.8</v>
       </c>
       <c r="F231" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G231" t="n">
-        <v>9.1</v>
+        <v>15.05</v>
       </c>
       <c r="H231" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I231" t="n">
-        <v>-17.4</v>
+        <v>-15.4</v>
       </c>
       <c r="J231" t="n">
-        <v>58</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="232">
@@ -8706,16 +8742,16 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>2785.3</v>
+        <v>2517.95</v>
       </c>
       <c r="D232" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E232" t="n">
-        <v>269.8</v>
+        <v>261.9</v>
       </c>
       <c r="F232" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -8723,10 +8759,10 @@
         </is>
       </c>
       <c r="H232" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I232" t="n">
-        <v>59.5</v>
+        <v>57.2</v>
       </c>
       <c r="J232" t="inlineStr">
         <is>
@@ -8744,28 +8780,28 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>523.25</v>
+        <v>525.95</v>
       </c>
       <c r="D233" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E233" t="n">
-        <v>1277.3</v>
+        <v>1117.55</v>
       </c>
       <c r="F233" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G233" t="n">
-        <v>224.75</v>
+        <v>325.25</v>
       </c>
       <c r="H233" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I233" t="n">
-        <v>-16.3</v>
+        <v>-14</v>
       </c>
       <c r="J233" t="n">
-        <v>41.6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="234">
@@ -8778,28 +8814,28 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>722</v>
+        <v>717.1</v>
       </c>
       <c r="D234" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E234" t="n">
-        <v>755.75</v>
+        <v>718.05</v>
       </c>
       <c r="F234" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G234" t="n">
-        <v>135.9</v>
+        <v>151.2</v>
       </c>
       <c r="H234" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I234" t="n">
-        <v>-0.9</v>
+        <v>-0</v>
       </c>
       <c r="J234" t="n">
-        <v>40.9</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="235">
@@ -8812,28 +8848,28 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>7017.95</v>
+        <v>7179.75</v>
       </c>
       <c r="D235" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E235" t="n">
-        <v>4256.05</v>
+        <v>4167</v>
       </c>
       <c r="F235" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G235" t="n">
-        <v>2041.9</v>
+        <v>1000.2</v>
       </c>
       <c r="H235" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I235" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="J235" t="n">
-        <v>15.8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="236">
@@ -8846,28 +8882,28 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>81.40000000000001</v>
+        <v>72.55</v>
       </c>
       <c r="D236" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E236" t="n">
-        <v>144.9</v>
+        <v>125.15</v>
       </c>
       <c r="F236" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G236" t="n">
-        <v>277.85</v>
+        <v>244.55</v>
       </c>
       <c r="H236" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I236" t="n">
-        <v>-10.9</v>
+        <v>-10.3</v>
       </c>
       <c r="J236" t="n">
-        <v>-12.2</v>
+        <v>-12.5</v>
       </c>
     </row>
     <row r="237">
@@ -8880,28 +8916,28 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1686.7</v>
+        <v>1549.75</v>
       </c>
       <c r="D237" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E237" t="n">
-        <v>1060.3</v>
+        <v>1059.4</v>
       </c>
       <c r="F237" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G237" t="n">
-        <v>928.45</v>
+        <v>169.1</v>
       </c>
       <c r="H237" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I237" t="n">
-        <v>9.699999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="J237" t="n">
-        <v>2.7</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="238">
@@ -8914,28 +8950,28 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>869.7</v>
+        <v>791.9</v>
       </c>
       <c r="D238" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E238" t="n">
-        <v>3643.8</v>
+        <v>3154.5</v>
       </c>
       <c r="F238" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G238" t="n">
-        <v>1938</v>
+        <v>1285.85</v>
       </c>
       <c r="H238" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I238" t="n">
-        <v>-24.9</v>
+        <v>-24.2</v>
       </c>
       <c r="J238" t="n">
-        <v>13.5</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="239">
@@ -8948,16 +8984,16 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1333.1</v>
+        <v>1273.7</v>
       </c>
       <c r="D239" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E239" t="n">
-        <v>655.4</v>
+        <v>670.65</v>
       </c>
       <c r="F239" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -8965,10 +9001,10 @@
         </is>
       </c>
       <c r="H239" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I239" t="n">
-        <v>15.3</v>
+        <v>13.7</v>
       </c>
       <c r="J239" t="inlineStr">
         <is>
@@ -8986,10 +9022,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1360.6</v>
+        <v>1219.5</v>
       </c>
       <c r="D240" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -8997,7 +9033,7 @@
         </is>
       </c>
       <c r="F240" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -9005,7 +9041,7 @@
         </is>
       </c>
       <c r="H240" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I240" t="inlineStr">
         <is>
@@ -9028,28 +9064,28 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>316.1</v>
+        <v>310.1</v>
       </c>
       <c r="D241" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E241" t="n">
-        <v>325.45</v>
+        <v>314.45</v>
       </c>
       <c r="F241" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G241" t="n">
-        <v>201.7</v>
+        <v>379.8</v>
       </c>
       <c r="H241" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I241" t="n">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="J241" t="n">
-        <v>10</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="242">
@@ -9062,28 +9098,28 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>2001.1</v>
+        <v>1936.7</v>
       </c>
       <c r="D242" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E242" t="n">
-        <v>991.15</v>
+        <v>871.15</v>
       </c>
       <c r="F242" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G242" t="n">
-        <v>153.5</v>
+        <v>74.15000000000001</v>
       </c>
       <c r="H242" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I242" t="n">
-        <v>15.1</v>
+        <v>17.3</v>
       </c>
       <c r="J242" t="n">
-        <v>45.2</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="243">
@@ -9096,28 +9132,28 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>8</v>
+        <v>7.85</v>
       </c>
       <c r="D243" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E243" t="n">
-        <v>104.6</v>
+        <v>85.55</v>
       </c>
       <c r="F243" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G243" t="n">
-        <v>109.75</v>
+        <v>58.05</v>
       </c>
       <c r="H243" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I243" t="n">
-        <v>-40.2</v>
+        <v>-38</v>
       </c>
       <c r="J243" t="n">
-        <v>-1</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="244">
@@ -9130,28 +9166,28 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>802.65</v>
+        <v>824.55</v>
       </c>
       <c r="D244" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E244" t="n">
-        <v>648.95</v>
+        <v>600.2</v>
       </c>
       <c r="F244" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G244" t="n">
-        <v>106.9</v>
+        <v>159.85</v>
       </c>
       <c r="H244" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I244" t="n">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
       <c r="J244" t="n">
-        <v>43.4</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="245">
@@ -9164,28 +9200,28 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1496.05</v>
+        <v>1282.65</v>
       </c>
       <c r="D245" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E245" t="n">
-        <v>1625.2</v>
+        <v>1455.75</v>
       </c>
       <c r="F245" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G245" t="n">
-        <v>275.15</v>
+        <v>132.2</v>
       </c>
       <c r="H245" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I245" t="n">
-        <v>-1.6</v>
+        <v>-2.5</v>
       </c>
       <c r="J245" t="n">
-        <v>42.6</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="246">
@@ -9198,28 +9234,28 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>393.05</v>
+        <v>408.3</v>
       </c>
       <c r="D246" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E246" t="n">
-        <v>316.55</v>
+        <v>289.8</v>
       </c>
       <c r="F246" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G246" t="n">
-        <v>403.65</v>
+        <v>659.9</v>
       </c>
       <c r="H246" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I246" t="n">
-        <v>4.4</v>
+        <v>7.1</v>
       </c>
       <c r="J246" t="n">
-        <v>-4.7</v>
+        <v>-15.2</v>
       </c>
     </row>
     <row r="247">
@@ -9232,28 +9268,28 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>21.65</v>
+        <v>16.85</v>
       </c>
       <c r="D247" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E247" t="n">
-        <v>312.6</v>
+        <v>335</v>
       </c>
       <c r="F247" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G247" t="n">
-        <v>489.05</v>
+        <v>234.25</v>
       </c>
       <c r="H247" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I247" t="n">
-        <v>-41.4</v>
+        <v>-45</v>
       </c>
       <c r="J247" t="n">
-        <v>-8.6</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="248">
@@ -9266,36 +9302,28 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>21.65</v>
+        <v>9916.9</v>
       </c>
       <c r="D248" s="2" t="n">
-        <v>44928</v>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+        <v>44966</v>
+      </c>
+      <c r="E248" t="n">
+        <v>7340.05</v>
       </c>
       <c r="F248" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+        <v>43139</v>
+      </c>
+      <c r="G248" t="n">
+        <v>736.6</v>
       </c>
       <c r="H248" s="2" t="n">
-        <v>41278</v>
-      </c>
-      <c r="I248" t="inlineStr">
-        <is>
-          <t>Nothing</t>
-        </is>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>Nothing</t>
-        </is>
+        <v>40221</v>
+      </c>
+      <c r="I248" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J248" t="n">
+        <v>58.4</v>
       </c>
     </row>
     <row r="249">
@@ -9308,28 +9336,28 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>243.1</v>
+        <v>224.5</v>
       </c>
       <c r="D249" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E249" t="n">
-        <v>579.2</v>
+        <v>584.8</v>
       </c>
       <c r="F249" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G249" t="n">
-        <v>227.05</v>
+        <v>259.8</v>
       </c>
       <c r="H249" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I249" t="n">
-        <v>-15.9</v>
+        <v>-17.4</v>
       </c>
       <c r="J249" t="n">
-        <v>20.6</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="250">
@@ -9342,10 +9370,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>60.3</v>
+        <v>54.4</v>
       </c>
       <c r="D250" s="2" t="n">
-        <v>44928</v>
+        <v>44966</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -9353,7 +9381,7 @@
         </is>
       </c>
       <c r="F250" s="2" t="n">
-        <v>43101</v>
+        <v>43139</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -9361,7 +9389,7 @@
         </is>
       </c>
       <c r="H250" s="2" t="n">
-        <v>41278</v>
+        <v>40221</v>
       </c>
       <c r="I250" t="inlineStr">
         <is>
@@ -9384,36 +9412,28 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>60.3</v>
+        <v>474.4</v>
       </c>
       <c r="D251" s="2" t="n">
-        <v>44928</v>
-      </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+        <v>44966</v>
+      </c>
+      <c r="E251" t="n">
+        <v>405.2</v>
       </c>
       <c r="F251" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>No Data</t>
-        </is>
+        <v>43139</v>
+      </c>
+      <c r="G251" t="n">
+        <v>701.2</v>
       </c>
       <c r="H251" s="2" t="n">
-        <v>41278</v>
-      </c>
-      <c r="I251" t="inlineStr">
-        <is>
-          <t>Nothing</t>
-        </is>
-      </c>
-      <c r="J251" t="inlineStr">
-        <is>
-          <t>Nothing</t>
-        </is>
+        <v>40221</v>
+      </c>
+      <c r="I251" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J251" t="n">
+        <v>-10.4</v>
       </c>
     </row>
   </sheetData>
